--- a/SocieteApp.xlsx
+++ b/SocieteApp.xlsx
@@ -8,16 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoyCurthMacbookAir/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FD91537-2160-8045-83BA-E1FD5EFF2A29}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D8AAFE73-0806-9C46-B21A-36DB0ACFE9AF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1360" windowWidth="26840" windowHeight="14680" xr2:uid="{229AE108-717C-974F-99E2-3E6C99552A47}"/>
+    <workbookView xWindow="0" yWindow="1360" windowWidth="26840" windowHeight="14680" activeTab="8" xr2:uid="{229AE108-717C-974F-99E2-3E6C99552A47}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cup of Joe" sheetId="4" r:id="rId1"/>
-    <sheet name="Store Inventory" sheetId="1" r:id="rId2"/>
-    <sheet name="Tea Pricing" sheetId="2" r:id="rId3"/>
-    <sheet name="Order History" sheetId="3" r:id="rId4"/>
+    <sheet name="COGS" sheetId="6" r:id="rId1"/>
+    <sheet name="Product Cost Basis" sheetId="7" r:id="rId2"/>
+    <sheet name="Profit Forecast" sheetId="8" r:id="rId3"/>
+    <sheet name="BlackSheepYoga" sheetId="9" r:id="rId4"/>
+    <sheet name="Product Cost" sheetId="5" r:id="rId5"/>
+    <sheet name="Cup of Joe" sheetId="4" r:id="rId6"/>
+    <sheet name="Store Inventory" sheetId="1" r:id="rId7"/>
+    <sheet name="Tea Pricing" sheetId="2" r:id="rId8"/>
+    <sheet name="Order History" sheetId="3" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -72,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="1226">
   <si>
     <t>Location</t>
   </si>
@@ -3076,15 +3084,1690 @@
   <si>
     <t>med</t>
   </si>
+  <si>
+    <t>Cost Per Oz</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elecampe Powder</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Starwest</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amazon</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lobelia</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comfrey Root</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Olive Oil</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daily Chef</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goldenseal</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plaintain</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple Cider Vinegar</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>White House Organic</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eyebright</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>4x6 clear bags</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 oz</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 tbs</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x5.5 clear bags</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 oz</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 tbs</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x3 clear bags</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2 oz</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 tbs</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>lip tins</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bulk Apothecary</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">silver pouch  6" X 9.5" X 3.25" - $.35/each for pack of 50
+</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>silver pouch 7" X 11" X 3.5" - $.55/each for pack of 50</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>glass 4 oz jars</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>etsy</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>lip balm jars</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>amazon</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 ml drams</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ebay</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>mt rose herbs</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>plants medicinales</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>domain</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>go daddy</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>books</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>sow and reap</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5 labels</t>
+  </si>
+  <si>
+    <t>Date Purchased</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eden's Garden Bulk Order</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15% off; + Taxes and shipping</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eden's Garden</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 gal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 Gal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost/Drop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>My Retail Price</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 ml</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 ml</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">drop </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 ml</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 ml</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sale 5 ml</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sale 10 ml</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bottle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Label</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lavender</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spike Lavender</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myrrh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ro Cham</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rose</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ginger</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lemon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peppermint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rosemary Spanish</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geranium</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweet Orange</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australian Sandalwood</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tea Tree</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clove Bud</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweet Marjoram</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lemon Eucalyptus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birch</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frankincense Frereana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fennel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>German Chamomile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coconut</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lemon Basil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Juniper Berry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clary Sage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ylang ylang</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LindenBlossom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pink Lotus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menthol</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mt Rose Herb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Drops</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tamanu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 oz</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rosehip</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sunflower</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sesame</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arnica Oil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 oz</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Citronella</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amazon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 lb = 464</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>per ml ~(400)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arnica Flowers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2 oz</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.25 cups oil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>236 ml</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arnica oil cost</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost per half oz</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Totall cost for 1.25 cups</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yield cost per ml 177 ml</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>per drop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ml</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBD Oil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gel caps</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 Ml orifice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 ml roll on gold bottles</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sitz bath jars</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 ml roll on gold bottles</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 ml orifice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 ml orifice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold tins</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 in sticker</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>drops</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost/drop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>43112/3 Angelica - 10% in coconut (eco)</t>
+  </si>
+  <si>
+    <t>Bliss Body</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>41542/3 Bay Leaf - 100%</t>
+  </si>
+  <si>
+    <t>40762/3 Pepper, Black - 100%</t>
+  </si>
+  <si>
+    <t>40432/3 Cardamom - 100% (C02 Select)</t>
+  </si>
+  <si>
+    <t>40292/3 Carrot Seed - 100%</t>
+  </si>
+  <si>
+    <t>40492/3 Champaca - 100%</t>
+  </si>
+  <si>
+    <t>40512/3 Cinnamon Bark - 100% (organic)</t>
+  </si>
+  <si>
+    <t>40522/3 Citronella - 100% (organic)</t>
+  </si>
+  <si>
+    <t>40532/3 Clove Bud - 100% (organic)</t>
+  </si>
+  <si>
+    <t>40572/3 Fir, Silver - 100% (organic)</t>
+  </si>
+  <si>
+    <t>41562/3 Ginger Root - 100% (C02 total organic)</t>
+  </si>
+  <si>
+    <t>40592/3 Grapefruit, Pink - 100% (organic)</t>
+  </si>
+  <si>
+    <t>43612/3 Helichrysum - 10% in coconut (organic)</t>
+  </si>
+  <si>
+    <t>40622/3 Hyssop - 100% (eco)</t>
+  </si>
+  <si>
+    <t>43132/3 Jasmine Sambac - 10% in coconut (absolute)</t>
+  </si>
+  <si>
+    <t>40872/3 Lavender , Maillette - 100% (organic)</t>
+  </si>
+  <si>
+    <t>40352/3 Lavandin (Abrialis) - 100% (organic)</t>
+  </si>
+  <si>
+    <t>40392/3 Myrtle, Lemon - 100%</t>
+  </si>
+  <si>
+    <t>40932/3 Lemongrass - 100% (organic)</t>
+  </si>
+  <si>
+    <t>41162/3 Lime - 100% (organic)</t>
+  </si>
+  <si>
+    <t>40192/3 Mandarin, Red - 100% (organic)</t>
+  </si>
+  <si>
+    <t>43142/3 Myrrh - 10% in coconut (C02 select)</t>
+  </si>
+  <si>
+    <t>40702/3 Nutmeg - 100% (C02 select)</t>
+  </si>
+  <si>
+    <t>40672/3 Oregano - 100% (organic)</t>
+  </si>
+  <si>
+    <t>42202/3 Petitgrain - 100%</t>
+  </si>
+  <si>
+    <t>44482/3 Pine, Dwarf - 100%</t>
+  </si>
+  <si>
+    <t>40722/3 Sage - 100% (organic)</t>
+  </si>
+  <si>
+    <t>40462/3 Spearmint - 100% (organic)</t>
+  </si>
+  <si>
+    <t>40032/3 Spruce, Hemlock - 100%</t>
+  </si>
+  <si>
+    <t>40792/3 Birch, Sweet - 100% (wild)</t>
+  </si>
+  <si>
+    <t>41012/3 Star Anise - 100%</t>
+  </si>
+  <si>
+    <t>40262/3 Vetiver - 100% (organic)</t>
+  </si>
+  <si>
+    <t>41362/3 Amyris - 100% (wild)</t>
+  </si>
+  <si>
+    <t>Meditation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanilla Bourbon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aphrodisiac</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>44432/3 Sage, White - 10% in coconut (organic)</t>
+  </si>
+  <si>
+    <t>Ceremonial/Meditation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>48087 Evening Primrose Oil</t>
+  </si>
+  <si>
+    <t>48258 Fractionated Coconut Oil</t>
+  </si>
+  <si>
+    <t>Black Spruce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vetiver</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elemi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valerian</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copaiba</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clementine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweet Orange</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melissa in coconut oil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peru Balsam</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yarrow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arbortivae</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>May Chang</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spikenard</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copiaba</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ravensara</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Niaoli</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rock Rose Cistis</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thyme</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 gallon unscented body wash</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>peppermint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>doterra</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lavender</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hawaiian Sandalwood</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>do terra</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 oz mister</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>amazon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 oz mister</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>viditi M743 Corrugated Mailer, 7" Length x 4" Width x 3" Height, Oyster Whit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Aviditi M1182 Corrugated Literature Mailer, 11-1/8" Length x 8-3/4" Width x 2" Height, Oyster White </t>
+  </si>
+  <si>
+    <t>Gold tissue paper</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back Bliss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 ml/drops</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost per drop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Costs Oils Total</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost in Bulk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volume</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oils</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black Pepper</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camphor/Calming</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweet Birch</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menthol</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carrier</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arnica Oil 9.5 ml</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oil??</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roll On</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roll-On Gold 10 ml</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sticker</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Label</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Cost</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shoulder Bliss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Costs Per Drop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>German Cham</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spike Lavinder</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Juniper Berry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sunflower Oil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Face Blend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 ml (600 drops)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frankincense</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geranium</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hawaiian Sandalwood</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myrrh in 10% jojoba</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rose</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helichyrsum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ylang Ylang</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total EO Drops</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosehip </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Packaging</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dropper</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sticker</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bath Salts</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epsom Salts</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glycerin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cocout Oil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sticker</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memory Bliss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orifice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rosemary</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lemon Basil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coconut Oil how much?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allergy Pills x30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gel Capsules x30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lavender</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lemon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peppermint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Cost</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sleep Bliss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>200 drops</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clary Sage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frank</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roman Cham</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orifice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Headache Bliss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweet Marjoram</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frank</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bliss Digest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suchi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fennel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roman Chamomile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anise</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cardamon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oregano</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug Spray</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 oz (2400 drops)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(120 ml/120 drops oils)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rose Geranium</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Citronella</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eucalyptus Lemon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lemon Grass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nerolina</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Witch Hazel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spray Bottle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name Labels</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 oz (4800 drops)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(240 ml/180 drops oils)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purify Bliss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cypress</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ravintsara</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grapefruit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coconut</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tea Tree Spray</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 ml spray</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tea Tree</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melissa Salve</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 oz</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calendula</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chamomile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melissa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Olive Oil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Label</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bliss Lavel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sku</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Products</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost Basis</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shipping</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volume a week</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volume a Month</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profit Per Week</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profit Per Month</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yearly</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Back Bliss </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roll On</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back Bliss with CBD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muscle Bliss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bliss Bath Salts</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Salts</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allergy Pills 30 count</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pills</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bliss Travel - Sleep</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bliss Travel - Awake</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoga Bliss </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memory Bliss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>O1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bliss Doggy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 ml Orifice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>O2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breathe Bliss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>O3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bliss Sleep</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bliss Digest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hangover Bliss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Romantic Bliss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bliss Surfie</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Headache Bliss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bliss Hip</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thyroid Bliss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heart Chakra Bliss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arthritis Bliss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sport Bliss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancer Relief Bliss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bliss Energy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bliss Skin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dropper</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bliss Uplift</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bliss Happy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>After Sun Bliss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summer Skin Bliss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scar Heal Bliss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wedding Bliss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vata Bliss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pitta Bliss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kapha Bliss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pregnancy Bliss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bliss Stress</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bliss Detox</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bliss Bug Spray</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 oz spray</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 oz spray</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subscription</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bliss Purify</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bliss Tea Tree Spray</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spray</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Variable Costs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Labels</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed Costs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>month</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marketing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amazon Biz Account</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bliss Website</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joy Curth Website</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gmail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mailchimp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black Sheep Yoga</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>COGS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profit Split</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stock</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sold</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Back Bliss </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shoulder</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Surf Bliss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muscle Bliss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 chakra</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 chakra</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 chakra</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 chakra</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 chakra</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 chakra</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 chakra</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black Sheep Bliss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sandalwood, Rose, Vanilla</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meditation (Reiki)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frank, Myrrh, Sandalwood, Rose</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detox</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Juniper, Grapefruit,lemon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleansing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Moon </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frank, Angelica, Helichrysum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detoxifying</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restore</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energize</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manifest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orange</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frankincense</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yoga Mat Spray</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clove, Orange, Lemon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bath Salts</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Salves</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="5">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -3218,8 +4901,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Avenir Book"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3274,6 +4970,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3284,11 +5004,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3409,8 +5133,119 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{E7FABDB3-1DB4-2F46-8193-6E02EEB3C88B}"/>
   </cellStyles>
@@ -3425,6 +5260,65 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Yogainventory"/>
+      <sheetName val="COGS"/>
+      <sheetName val="Product Cost Basis"/>
+      <sheetName val="Profit Forecast"/>
+      <sheetName val="BlackSheepYoga"/>
+      <sheetName val="Sales"/>
+      <sheetName val="SuchiJuly2017"/>
+      <sheetName val="Channels"/>
+      <sheetName val="Wellness Consultation"/>
+      <sheetName val="Workshops"/>
+      <sheetName val="Project Plan"/>
+      <sheetName val="Goals"/>
+      <sheetName val="Rose Comparison"/>
+      <sheetName val="Drops Chart"/>
+      <sheetName val="Oils 20152016"/>
+      <sheetName val="AmazonEbay"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14">
+        <row r="53">
+          <cell r="F53">
+            <v>3.3500000000000002E-2</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="F80">
+            <v>1.7249999999999998E-2</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="F89">
+            <v>9.9966666666666662E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3723,10 +5617,7527 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B27359-D875-4A49-866C-98B40AE7ADDF}">
+  <sheetPr published="0"/>
+  <dimension ref="A1:R146"/>
+  <sheetViews>
+    <sheetView view="pageLayout" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>839</v>
+      </c>
+      <c r="C1" s="88"/>
+      <c r="D1" t="s">
+        <v>840</v>
+      </c>
+      <c r="E1">
+        <v>3434.05</v>
+      </c>
+      <c r="F1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="30" customFormat="1">
+      <c r="C2" s="91" t="s">
+        <v>842</v>
+      </c>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="92" t="s">
+        <v>843</v>
+      </c>
+      <c r="I2" s="93" t="s">
+        <v>844</v>
+      </c>
+      <c r="J2" s="94" t="s">
+        <v>845</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="30" customFormat="1">
+      <c r="C3" s="30" t="s">
+        <v>847</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>848</v>
+      </c>
+      <c r="E3" s="30">
+        <v>30</v>
+      </c>
+      <c r="F3" s="95">
+        <v>100</v>
+      </c>
+      <c r="G3" s="30">
+        <v>250</v>
+      </c>
+      <c r="H3" s="30">
+        <v>3785.41</v>
+      </c>
+      <c r="I3" s="96">
+        <v>18927.099999999999</v>
+      </c>
+      <c r="J3" s="94" t="s">
+        <v>849</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>850</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>851</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>852</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>853</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>854</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>855</v>
+      </c>
+      <c r="Q3" s="30" t="s">
+        <v>856</v>
+      </c>
+      <c r="R3" s="30" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="55">
+        <v>41354</v>
+      </c>
+      <c r="B4" t="s">
+        <v>858</v>
+      </c>
+      <c r="C4">
+        <v>6.95</v>
+      </c>
+      <c r="D4">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="F4" s="97">
+        <v>56.95</v>
+      </c>
+      <c r="G4" s="30">
+        <v>123.95</v>
+      </c>
+      <c r="J4" s="98">
+        <f>G4/5000</f>
+        <v>2.479E-2</v>
+      </c>
+      <c r="K4" s="99">
+        <v>8</v>
+      </c>
+      <c r="L4" s="99">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="O4">
+        <f>J4*200</f>
+        <v>4.9580000000000002</v>
+      </c>
+      <c r="P4">
+        <v>0.15</v>
+      </c>
+      <c r="Q4">
+        <v>0.25</v>
+      </c>
+      <c r="R4" s="57">
+        <f>N4-O4-Q4-P4</f>
+        <v>3.5919999999999992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="55">
+        <v>41354</v>
+      </c>
+      <c r="B5" t="s">
+        <v>859</v>
+      </c>
+      <c r="C5">
+        <v>4.95</v>
+      </c>
+      <c r="D5">
+        <v>6.95</v>
+      </c>
+      <c r="F5" s="97"/>
+      <c r="G5" s="30">
+        <v>97.95</v>
+      </c>
+      <c r="J5" s="98">
+        <f t="shared" ref="J5:J20" si="0">G5/5000</f>
+        <v>1.959E-2</v>
+      </c>
+      <c r="K5" s="99">
+        <v>6</v>
+      </c>
+      <c r="L5" s="99">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>6.95</v>
+      </c>
+      <c r="O5">
+        <f>J5*200</f>
+        <v>3.9180000000000001</v>
+      </c>
+      <c r="P5">
+        <v>0.15</v>
+      </c>
+      <c r="Q5">
+        <v>0.25</v>
+      </c>
+      <c r="R5" s="57">
+        <f>N5-O5-Q5-P5</f>
+        <v>2.6320000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="55">
+        <v>41354</v>
+      </c>
+      <c r="B6" t="s">
+        <v>860</v>
+      </c>
+      <c r="C6">
+        <v>11.95</v>
+      </c>
+      <c r="D6">
+        <v>16.95</v>
+      </c>
+      <c r="F6" s="95">
+        <v>107.95</v>
+      </c>
+      <c r="G6" s="56">
+        <v>233.95</v>
+      </c>
+      <c r="J6" s="98">
+        <f>F6/2000</f>
+        <v>5.3975000000000002E-2</v>
+      </c>
+      <c r="K6" s="99">
+        <v>13</v>
+      </c>
+      <c r="L6" s="99">
+        <v>18</v>
+      </c>
+      <c r="N6">
+        <v>16.95</v>
+      </c>
+      <c r="P6">
+        <v>0.15</v>
+      </c>
+      <c r="Q6">
+        <v>0.25</v>
+      </c>
+      <c r="R6" s="57">
+        <f>N6-O6-Q6-P6</f>
+        <v>16.55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="55">
+        <v>41354</v>
+      </c>
+      <c r="B7" t="s">
+        <v>861</v>
+      </c>
+      <c r="C7">
+        <v>23.95</v>
+      </c>
+      <c r="D7">
+        <v>33.950000000000003</v>
+      </c>
+      <c r="F7" s="97"/>
+      <c r="G7" s="30">
+        <v>467.95</v>
+      </c>
+      <c r="J7" s="98">
+        <f t="shared" si="0"/>
+        <v>9.3589999999999993E-2</v>
+      </c>
+      <c r="K7" s="99">
+        <v>25</v>
+      </c>
+      <c r="L7" s="99">
+        <v>35</v>
+      </c>
+      <c r="N7">
+        <v>33.950000000000003</v>
+      </c>
+      <c r="P7">
+        <v>0.15</v>
+      </c>
+      <c r="Q7">
+        <v>0.25</v>
+      </c>
+      <c r="R7" s="57">
+        <f>N7-O7-Q7-P7</f>
+        <v>33.550000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="55">
+        <v>41354</v>
+      </c>
+      <c r="B8" t="s">
+        <v>862</v>
+      </c>
+      <c r="C8">
+        <v>55.95</v>
+      </c>
+      <c r="D8">
+        <v>79.95</v>
+      </c>
+      <c r="F8" s="97"/>
+      <c r="G8" s="30">
+        <v>1091.95</v>
+      </c>
+      <c r="J8" s="98">
+        <f t="shared" si="0"/>
+        <v>0.21839</v>
+      </c>
+      <c r="K8" s="99">
+        <v>60</v>
+      </c>
+      <c r="L8" s="99">
+        <v>120</v>
+      </c>
+      <c r="M8">
+        <v>50</v>
+      </c>
+      <c r="O8">
+        <f>J8*100</f>
+        <v>21.838999999999999</v>
+      </c>
+      <c r="P8">
+        <v>0.15</v>
+      </c>
+      <c r="Q8">
+        <v>0.25</v>
+      </c>
+      <c r="R8" s="57">
+        <f>M8-O8</f>
+        <v>28.161000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="55">
+        <v>41354</v>
+      </c>
+      <c r="B9" t="s">
+        <v>863</v>
+      </c>
+      <c r="C9">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="D9">
+        <v>12.95</v>
+      </c>
+      <c r="F9" s="97"/>
+      <c r="G9" s="30">
+        <v>181.95</v>
+      </c>
+      <c r="J9" s="98">
+        <f t="shared" si="0"/>
+        <v>3.6389999999999999E-2</v>
+      </c>
+      <c r="K9" s="99">
+        <v>10</v>
+      </c>
+      <c r="L9" s="99">
+        <v>14</v>
+      </c>
+      <c r="N9">
+        <v>12.95</v>
+      </c>
+      <c r="P9">
+        <v>0.15</v>
+      </c>
+      <c r="Q9">
+        <v>0.25</v>
+      </c>
+      <c r="R9" s="57">
+        <f>N9-P9-Q9</f>
+        <v>12.549999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="55">
+        <v>41354</v>
+      </c>
+      <c r="B10" t="s">
+        <v>864</v>
+      </c>
+      <c r="C10">
+        <v>4.95</v>
+      </c>
+      <c r="D10">
+        <v>6.95</v>
+      </c>
+      <c r="F10" s="97"/>
+      <c r="G10" s="30">
+        <v>97.95</v>
+      </c>
+      <c r="J10" s="98">
+        <f t="shared" si="0"/>
+        <v>1.959E-2</v>
+      </c>
+      <c r="K10" s="99">
+        <v>6</v>
+      </c>
+      <c r="L10" s="99">
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <v>6.95</v>
+      </c>
+      <c r="P10">
+        <v>0.15</v>
+      </c>
+      <c r="Q10">
+        <v>0.25</v>
+      </c>
+      <c r="R10" s="57">
+        <f>N10-P10-Q10</f>
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="55">
+        <v>41354</v>
+      </c>
+      <c r="B11" t="s">
+        <v>865</v>
+      </c>
+      <c r="C11">
+        <v>4.95</v>
+      </c>
+      <c r="D11">
+        <v>6.95</v>
+      </c>
+      <c r="F11" s="97"/>
+      <c r="G11" s="30">
+        <v>97.95</v>
+      </c>
+      <c r="J11" s="98">
+        <f t="shared" si="0"/>
+        <v>1.959E-2</v>
+      </c>
+      <c r="K11" s="99">
+        <v>6</v>
+      </c>
+      <c r="L11" s="99">
+        <v>8</v>
+      </c>
+      <c r="N11">
+        <v>6.95</v>
+      </c>
+      <c r="P11">
+        <v>0.15</v>
+      </c>
+      <c r="Q11">
+        <v>0.25</v>
+      </c>
+      <c r="R11" s="57">
+        <f>N11-P11-Q11</f>
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="55">
+        <v>41354</v>
+      </c>
+      <c r="B12" t="s">
+        <v>866</v>
+      </c>
+      <c r="C12">
+        <v>4.95</v>
+      </c>
+      <c r="D12">
+        <v>6.95</v>
+      </c>
+      <c r="F12" s="97"/>
+      <c r="G12" s="30">
+        <v>97.95</v>
+      </c>
+      <c r="J12" s="98">
+        <f t="shared" si="0"/>
+        <v>1.959E-2</v>
+      </c>
+      <c r="K12" s="99">
+        <v>6</v>
+      </c>
+      <c r="L12" s="99">
+        <v>8</v>
+      </c>
+      <c r="N12">
+        <v>6.95</v>
+      </c>
+      <c r="P12">
+        <v>0.15</v>
+      </c>
+      <c r="Q12">
+        <v>0.25</v>
+      </c>
+      <c r="R12" s="57">
+        <f>N12-P12-Q12</f>
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="55">
+        <v>41354</v>
+      </c>
+      <c r="B13" t="s">
+        <v>867</v>
+      </c>
+      <c r="C13">
+        <v>6.95</v>
+      </c>
+      <c r="D13">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="F13" s="95">
+        <v>62.95</v>
+      </c>
+      <c r="G13" s="56">
+        <v>136.94999999999999</v>
+      </c>
+      <c r="J13" s="100">
+        <f>F13/2000</f>
+        <v>3.1475000000000003E-2</v>
+      </c>
+      <c r="K13" s="99">
+        <v>8</v>
+      </c>
+      <c r="L13" s="99">
+        <v>11</v>
+      </c>
+      <c r="R13" s="57"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="55">
+        <v>41354</v>
+      </c>
+      <c r="B14" t="s">
+        <v>868</v>
+      </c>
+      <c r="C14">
+        <v>4.95</v>
+      </c>
+      <c r="D14">
+        <v>6.95</v>
+      </c>
+      <c r="F14" s="97"/>
+      <c r="G14" s="30">
+        <v>97.95</v>
+      </c>
+      <c r="J14" s="98">
+        <f t="shared" si="0"/>
+        <v>1.959E-2</v>
+      </c>
+      <c r="K14" s="99">
+        <v>6</v>
+      </c>
+      <c r="L14" s="99">
+        <v>8</v>
+      </c>
+      <c r="R14" s="57"/>
+    </row>
+    <row r="15" spans="1:18" s="102" customFormat="1">
+      <c r="A15" s="101">
+        <v>41354</v>
+      </c>
+      <c r="B15" s="102" t="s">
+        <v>869</v>
+      </c>
+      <c r="C15" s="102">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="D15" s="102">
+        <v>49.95</v>
+      </c>
+      <c r="E15" s="92">
+        <v>104.95</v>
+      </c>
+      <c r="F15" s="103">
+        <v>314.95</v>
+      </c>
+      <c r="G15" s="104">
+        <v>682.95</v>
+      </c>
+      <c r="J15" s="105">
+        <f>G15/600</f>
+        <v>1.13825</v>
+      </c>
+      <c r="K15" s="106">
+        <v>36</v>
+      </c>
+      <c r="L15" s="106">
+        <v>51</v>
+      </c>
+      <c r="R15" s="97"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="55">
+        <v>41354</v>
+      </c>
+      <c r="B16" t="s">
+        <v>870</v>
+      </c>
+      <c r="C16">
+        <v>4.95</v>
+      </c>
+      <c r="D16">
+        <v>6.95</v>
+      </c>
+      <c r="F16" s="97">
+        <v>44.95</v>
+      </c>
+      <c r="G16" s="30">
+        <v>97.95</v>
+      </c>
+      <c r="J16" s="98">
+        <f t="shared" si="0"/>
+        <v>1.959E-2</v>
+      </c>
+      <c r="K16" s="99">
+        <v>6</v>
+      </c>
+      <c r="L16" s="99">
+        <v>8</v>
+      </c>
+      <c r="R16" s="57"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="55">
+        <v>41354</v>
+      </c>
+      <c r="B17" t="s">
+        <v>871</v>
+      </c>
+      <c r="C17">
+        <v>4.95</v>
+      </c>
+      <c r="D17">
+        <v>6.95</v>
+      </c>
+      <c r="F17" s="97"/>
+      <c r="G17" s="30">
+        <v>97.95</v>
+      </c>
+      <c r="J17" s="98">
+        <f t="shared" si="0"/>
+        <v>1.959E-2</v>
+      </c>
+      <c r="K17" s="99">
+        <v>6</v>
+      </c>
+      <c r="L17" s="99">
+        <v>8</v>
+      </c>
+      <c r="R17" s="57"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="55">
+        <v>41354</v>
+      </c>
+      <c r="B18" t="s">
+        <v>872</v>
+      </c>
+      <c r="C18">
+        <v>6.95</v>
+      </c>
+      <c r="D18">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="F18" s="97"/>
+      <c r="G18" s="30">
+        <v>56.95</v>
+      </c>
+      <c r="J18" s="98">
+        <f t="shared" si="0"/>
+        <v>1.1390000000000001E-2</v>
+      </c>
+      <c r="K18" s="99">
+        <v>8</v>
+      </c>
+      <c r="L18" s="99">
+        <v>10</v>
+      </c>
+      <c r="R18" s="57"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="55">
+        <v>41354</v>
+      </c>
+      <c r="B19" t="s">
+        <v>873</v>
+      </c>
+      <c r="C19">
+        <v>4.95</v>
+      </c>
+      <c r="D19">
+        <v>6.95</v>
+      </c>
+      <c r="F19" s="97"/>
+      <c r="G19" s="30">
+        <v>97.95</v>
+      </c>
+      <c r="J19" s="98">
+        <f t="shared" si="0"/>
+        <v>1.959E-2</v>
+      </c>
+      <c r="K19" s="99">
+        <v>6</v>
+      </c>
+      <c r="L19" s="99">
+        <v>8</v>
+      </c>
+      <c r="R19" s="57"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="55">
+        <v>41354</v>
+      </c>
+      <c r="B20" t="s">
+        <v>874</v>
+      </c>
+      <c r="C20">
+        <v>6.95</v>
+      </c>
+      <c r="D20">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="F20" s="97"/>
+      <c r="G20" s="30">
+        <v>123.95</v>
+      </c>
+      <c r="J20" s="98">
+        <f t="shared" si="0"/>
+        <v>2.479E-2</v>
+      </c>
+      <c r="K20" s="99">
+        <v>8</v>
+      </c>
+      <c r="L20" s="99">
+        <v>10</v>
+      </c>
+      <c r="R20" s="57"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="55">
+        <v>41354</v>
+      </c>
+      <c r="B21" t="s">
+        <v>875</v>
+      </c>
+      <c r="C21">
+        <v>10.95</v>
+      </c>
+      <c r="D21">
+        <v>15.95</v>
+      </c>
+      <c r="F21" s="97"/>
+      <c r="G21" s="30">
+        <v>220.95</v>
+      </c>
+      <c r="J21" s="98">
+        <f>G21/5000</f>
+        <v>4.419E-2</v>
+      </c>
+      <c r="K21" s="99">
+        <v>12</v>
+      </c>
+      <c r="L21" s="99">
+        <v>17</v>
+      </c>
+      <c r="R21" s="57"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="55">
+        <v>41354</v>
+      </c>
+      <c r="B22" t="s">
+        <v>876</v>
+      </c>
+      <c r="C22">
+        <v>4.95</v>
+      </c>
+      <c r="D22">
+        <v>6.95</v>
+      </c>
+      <c r="F22" s="97"/>
+      <c r="G22" s="30">
+        <v>97.95</v>
+      </c>
+      <c r="J22" s="98">
+        <f>G22/5000</f>
+        <v>1.959E-2</v>
+      </c>
+      <c r="K22" s="99">
+        <v>6</v>
+      </c>
+      <c r="L22" s="99">
+        <v>8</v>
+      </c>
+      <c r="R22" s="57"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="55">
+        <v>41354</v>
+      </c>
+      <c r="B23" t="s">
+        <v>877</v>
+      </c>
+      <c r="C23">
+        <v>26.95</v>
+      </c>
+      <c r="D23">
+        <v>38.950000000000003</v>
+      </c>
+      <c r="F23" s="107">
+        <v>245.95</v>
+      </c>
+      <c r="G23">
+        <v>532.95000000000005</v>
+      </c>
+      <c r="J23" s="98">
+        <f>F23/2000</f>
+        <v>0.122975</v>
+      </c>
+      <c r="K23" s="99">
+        <v>28</v>
+      </c>
+      <c r="L23" s="99">
+        <v>40</v>
+      </c>
+      <c r="R23" s="57"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="55"/>
+      <c r="F24" s="57"/>
+      <c r="J24" s="98">
+        <f>G25/5000</f>
+        <v>3.5899999999999999E-3</v>
+      </c>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="R24" s="57"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="55">
+        <v>41354</v>
+      </c>
+      <c r="B25" t="s">
+        <v>878</v>
+      </c>
+      <c r="C25" t="s">
+        <v>879</v>
+      </c>
+      <c r="D25" t="s">
+        <v>879</v>
+      </c>
+      <c r="F25" s="57">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="G25">
+        <v>17.95</v>
+      </c>
+      <c r="J25" s="98">
+        <f>G25/5000</f>
+        <v>3.5899999999999999E-3</v>
+      </c>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="R25" s="57"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="B26" s="89" t="s">
+        <v>880</v>
+      </c>
+      <c r="C26">
+        <v>6.95</v>
+      </c>
+      <c r="D26">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="F26" s="57"/>
+      <c r="G26">
+        <v>123.95</v>
+      </c>
+      <c r="J26" s="89">
+        <f>G26/5000</f>
+        <v>2.479E-2</v>
+      </c>
+      <c r="K26" s="99">
+        <v>8</v>
+      </c>
+      <c r="L26" s="99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="B27" s="89" t="s">
+        <v>881</v>
+      </c>
+      <c r="C27">
+        <v>5.95</v>
+      </c>
+      <c r="D27">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="F27" s="57"/>
+      <c r="G27">
+        <v>110.95</v>
+      </c>
+      <c r="J27" s="89">
+        <f>G27/5000</f>
+        <v>2.2190000000000001E-2</v>
+      </c>
+      <c r="K27" s="99">
+        <v>7</v>
+      </c>
+      <c r="L27" s="99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="B28" s="89" t="s">
+        <v>882</v>
+      </c>
+      <c r="C28">
+        <v>6.95</v>
+      </c>
+      <c r="F28" s="57"/>
+      <c r="G28">
+        <v>136.94999999999999</v>
+      </c>
+      <c r="J28" s="89">
+        <f>G28/5000</f>
+        <v>2.7389999999999998E-2</v>
+      </c>
+      <c r="K28" s="99">
+        <v>8</v>
+      </c>
+      <c r="L28" s="99"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="B29" s="89" t="s">
+        <v>883</v>
+      </c>
+      <c r="C29">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="D29">
+        <v>12.95</v>
+      </c>
+      <c r="F29" s="57"/>
+      <c r="G29">
+        <v>181.95</v>
+      </c>
+      <c r="J29" s="89">
+        <f>G29/5000</f>
+        <v>3.6389999999999999E-2</v>
+      </c>
+      <c r="K29" s="99">
+        <v>10</v>
+      </c>
+      <c r="L29" s="99">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="55">
+        <v>41382</v>
+      </c>
+      <c r="B30" t="s">
+        <v>884</v>
+      </c>
+      <c r="C30">
+        <v>26.4</v>
+      </c>
+      <c r="F30" s="57"/>
+      <c r="J30">
+        <f>C30/100</f>
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="B31" t="s">
+        <v>885</v>
+      </c>
+      <c r="F31" s="57"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="B32" s="56" t="s">
+        <v>886</v>
+      </c>
+      <c r="F32" s="57"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="30"/>
+      <c r="F33" s="57"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="F34" s="57"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="30" t="s">
+        <v>887</v>
+      </c>
+      <c r="C35" s="88">
+        <v>41346</v>
+      </c>
+      <c r="F35" s="57"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="30"/>
+      <c r="C36" s="88" t="s">
+        <v>888</v>
+      </c>
+      <c r="D36" t="s">
+        <v>889</v>
+      </c>
+      <c r="E36" t="s">
+        <v>890</v>
+      </c>
+      <c r="F36" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" t="s">
+        <v>891</v>
+      </c>
+      <c r="C37" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" t="s">
+        <v>893</v>
+      </c>
+      <c r="C38" t="s">
+        <v>892</v>
+      </c>
+      <c r="D38">
+        <v>9600</v>
+      </c>
+      <c r="E38">
+        <v>55</v>
+      </c>
+      <c r="F38">
+        <f>E38/D38</f>
+        <v>5.7291666666666663E-3</v>
+      </c>
+      <c r="H38">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" t="s">
+        <v>894</v>
+      </c>
+      <c r="C39" t="s">
+        <v>892</v>
+      </c>
+      <c r="E39">
+        <v>7.5</v>
+      </c>
+      <c r="F39" s="57"/>
+      <c r="I39">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" t="s">
+        <v>895</v>
+      </c>
+      <c r="F40" s="57"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" t="s">
+        <v>896</v>
+      </c>
+      <c r="C41" t="s">
+        <v>897</v>
+      </c>
+      <c r="D41">
+        <v>2400</v>
+      </c>
+      <c r="E41">
+        <v>34.75</v>
+      </c>
+      <c r="F41" s="57">
+        <f>E41/D41</f>
+        <v>1.4479166666666666E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" t="s">
+        <v>898</v>
+      </c>
+      <c r="J42" s="108">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="F43" s="57"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="F44" s="57"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="30" t="s">
+        <v>899</v>
+      </c>
+      <c r="C45" s="88">
+        <v>41346</v>
+      </c>
+      <c r="F45" s="57"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="30"/>
+      <c r="C46" s="88" t="s">
+        <v>900</v>
+      </c>
+      <c r="D46" t="s">
+        <v>901</v>
+      </c>
+      <c r="F46" s="57"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" t="s">
+        <v>902</v>
+      </c>
+      <c r="C47">
+        <v>16</v>
+      </c>
+      <c r="F47" s="57"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="F48" s="57"/>
+      <c r="G48" s="109">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="C49" t="s">
+        <v>903</v>
+      </c>
+      <c r="D49" t="s">
+        <v>904</v>
+      </c>
+      <c r="F49" s="57" t="s">
+        <v>905</v>
+      </c>
+      <c r="G49">
+        <f>236*0.75</f>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="B50" t="s">
+        <v>906</v>
+      </c>
+      <c r="F50" s="57"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="C51">
+        <f>17.53/32</f>
+        <v>0.54781250000000004</v>
+      </c>
+      <c r="D51" t="s">
+        <v>907</v>
+      </c>
+      <c r="F51" s="57"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="C52">
+        <f>236*J38</f>
+        <v>0</v>
+      </c>
+      <c r="F52" s="57"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="C53">
+        <f>SUM(C51:C52)</f>
+        <v>0.54781250000000004</v>
+      </c>
+      <c r="D53" t="s">
+        <v>908</v>
+      </c>
+      <c r="F53" s="57"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="C54">
+        <f>C53/177</f>
+        <v>3.0949858757062148E-3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>909</v>
+      </c>
+      <c r="F54" s="57"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="C55">
+        <f>C54/20</f>
+        <v>1.5474929378531073E-4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>910</v>
+      </c>
+      <c r="F55" s="57"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="F56" s="57"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="F57" s="57"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="C58" t="s">
+        <v>911</v>
+      </c>
+      <c r="F58" s="57"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="B59" t="s">
+        <v>912</v>
+      </c>
+      <c r="C59">
+        <v>68</v>
+      </c>
+      <c r="D59">
+        <v>89.95</v>
+      </c>
+      <c r="F59" s="57">
+        <f>(D59/C59)/20</f>
+        <v>6.6139705882352934E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="F60" s="57"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="F61" s="57"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="F62" s="57"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="B63" t="s">
+        <v>913</v>
+      </c>
+      <c r="C63">
+        <v>7.5</v>
+      </c>
+      <c r="D63">
+        <v>250</v>
+      </c>
+      <c r="F63" s="57">
+        <f>C63/D63</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="55">
+        <v>41373</v>
+      </c>
+      <c r="B64" t="s">
+        <v>914</v>
+      </c>
+      <c r="F64" s="57">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="B65" t="s">
+        <v>915</v>
+      </c>
+      <c r="F65" s="57"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="B66" t="s">
+        <v>916</v>
+      </c>
+      <c r="F66" s="57"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="B67" t="s">
+        <v>917</v>
+      </c>
+      <c r="F67" s="57"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="B68" t="s">
+        <v>918</v>
+      </c>
+      <c r="F68" s="57"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="B69" s="110" t="s">
+        <v>919</v>
+      </c>
+      <c r="C69" s="110">
+        <v>59.95</v>
+      </c>
+      <c r="D69" s="110">
+        <v>100</v>
+      </c>
+      <c r="E69" s="110"/>
+      <c r="F69" s="111">
+        <f>C69/D69</f>
+        <v>0.59950000000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="B70" t="s">
+        <v>920</v>
+      </c>
+      <c r="F70" s="57"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="B71" t="s">
+        <v>921</v>
+      </c>
+      <c r="C71">
+        <v>18.28</v>
+      </c>
+      <c r="D71">
+        <v>96</v>
+      </c>
+      <c r="F71" s="57">
+        <f>C71/D71</f>
+        <v>0.19041666666666668</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="F72" s="57"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="102"/>
+      <c r="B73" s="102" t="s">
+        <v>922</v>
+      </c>
+      <c r="C73" s="102" t="s">
+        <v>923</v>
+      </c>
+      <c r="D73" s="102" t="s">
+        <v>911</v>
+      </c>
+      <c r="E73" s="102" t="s">
+        <v>924</v>
+      </c>
+      <c r="F73" s="102" t="s">
+        <v>925</v>
+      </c>
+      <c r="G73" s="102"/>
+      <c r="H73" s="102"/>
+      <c r="I73" s="102"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B74" t="s">
+        <v>926</v>
+      </c>
+      <c r="C74" s="112">
+        <v>23.45</v>
+      </c>
+      <c r="D74">
+        <v>30</v>
+      </c>
+      <c r="E74">
+        <v>600</v>
+      </c>
+      <c r="F74" s="112">
+        <f>C74/E74</f>
+        <v>3.9083333333333331E-2</v>
+      </c>
+      <c r="G74" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B75" t="s">
+        <v>928</v>
+      </c>
+      <c r="C75" s="112">
+        <v>13.2</v>
+      </c>
+      <c r="D75">
+        <v>30</v>
+      </c>
+      <c r="E75">
+        <v>600</v>
+      </c>
+      <c r="F75" s="112">
+        <f t="shared" ref="F75:F110" si="1">C75/E75</f>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G75" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B76" t="s">
+        <v>929</v>
+      </c>
+      <c r="C76" s="112">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="D76">
+        <v>30</v>
+      </c>
+      <c r="E76">
+        <v>600</v>
+      </c>
+      <c r="F76" s="112">
+        <f t="shared" si="1"/>
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="G76" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B77" t="s">
+        <v>930</v>
+      </c>
+      <c r="C77" s="112">
+        <v>26.95</v>
+      </c>
+      <c r="D77">
+        <v>30</v>
+      </c>
+      <c r="E77">
+        <v>600</v>
+      </c>
+      <c r="F77" s="112">
+        <f t="shared" si="1"/>
+        <v>4.4916666666666667E-2</v>
+      </c>
+      <c r="G77" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B78" t="s">
+        <v>931</v>
+      </c>
+      <c r="C78" s="112">
+        <v>17.95</v>
+      </c>
+      <c r="D78">
+        <v>30</v>
+      </c>
+      <c r="E78">
+        <v>600</v>
+      </c>
+      <c r="F78" s="112">
+        <f t="shared" si="1"/>
+        <v>2.9916666666666664E-2</v>
+      </c>
+      <c r="G78" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B79" t="s">
+        <v>932</v>
+      </c>
+      <c r="C79" s="112">
+        <v>43.95</v>
+      </c>
+      <c r="D79">
+        <v>30</v>
+      </c>
+      <c r="E79">
+        <v>600</v>
+      </c>
+      <c r="F79" s="112">
+        <f t="shared" si="1"/>
+        <v>7.325000000000001E-2</v>
+      </c>
+      <c r="G79" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B80" t="s">
+        <v>933</v>
+      </c>
+      <c r="C80" s="112">
+        <v>33.65</v>
+      </c>
+      <c r="D80">
+        <v>30</v>
+      </c>
+      <c r="E80">
+        <v>600</v>
+      </c>
+      <c r="F80" s="112">
+        <f t="shared" si="1"/>
+        <v>5.6083333333333332E-2</v>
+      </c>
+      <c r="G80" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B81" t="s">
+        <v>934</v>
+      </c>
+      <c r="C81" s="112">
+        <v>9.35</v>
+      </c>
+      <c r="D81">
+        <v>30</v>
+      </c>
+      <c r="E81">
+        <v>600</v>
+      </c>
+      <c r="F81" s="112">
+        <f t="shared" si="1"/>
+        <v>1.5583333333333333E-2</v>
+      </c>
+      <c r="G81" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B82" t="s">
+        <v>935</v>
+      </c>
+      <c r="C82" s="112">
+        <v>16.25</v>
+      </c>
+      <c r="D82">
+        <v>30</v>
+      </c>
+      <c r="E82">
+        <v>600</v>
+      </c>
+      <c r="F82" s="112">
+        <f t="shared" si="1"/>
+        <v>2.7083333333333334E-2</v>
+      </c>
+      <c r="G82" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B83" t="s">
+        <v>936</v>
+      </c>
+      <c r="C83" s="112">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D83">
+        <v>30</v>
+      </c>
+      <c r="E83">
+        <v>600</v>
+      </c>
+      <c r="F83" s="112">
+        <f t="shared" si="1"/>
+        <v>1.3666666666666666E-2</v>
+      </c>
+      <c r="G83" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B84" t="s">
+        <v>937</v>
+      </c>
+      <c r="C84" s="112">
+        <v>23.2</v>
+      </c>
+      <c r="D84">
+        <v>30</v>
+      </c>
+      <c r="E84">
+        <v>600</v>
+      </c>
+      <c r="F84" s="112">
+        <f t="shared" si="1"/>
+        <v>3.8666666666666669E-2</v>
+      </c>
+      <c r="G84" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B85" t="s">
+        <v>938</v>
+      </c>
+      <c r="C85" s="112">
+        <v>12.85</v>
+      </c>
+      <c r="D85">
+        <v>30</v>
+      </c>
+      <c r="E85">
+        <v>600</v>
+      </c>
+      <c r="F85" s="112">
+        <f t="shared" si="1"/>
+        <v>2.1416666666666667E-2</v>
+      </c>
+      <c r="G85" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B86" t="s">
+        <v>939</v>
+      </c>
+      <c r="C86">
+        <v>28.85</v>
+      </c>
+      <c r="D86">
+        <v>30</v>
+      </c>
+      <c r="E86">
+        <v>600</v>
+      </c>
+      <c r="F86" s="112">
+        <f t="shared" si="1"/>
+        <v>4.8083333333333339E-2</v>
+      </c>
+      <c r="G86" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B87" t="s">
+        <v>940</v>
+      </c>
+      <c r="C87">
+        <v>20.45</v>
+      </c>
+      <c r="D87">
+        <v>30</v>
+      </c>
+      <c r="E87">
+        <v>600</v>
+      </c>
+      <c r="F87" s="112">
+        <f t="shared" si="1"/>
+        <v>3.4083333333333334E-2</v>
+      </c>
+      <c r="G87" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B88" t="s">
+        <v>941</v>
+      </c>
+      <c r="C88" s="112">
+        <v>31.6</v>
+      </c>
+      <c r="D88">
+        <v>30</v>
+      </c>
+      <c r="E88">
+        <v>600</v>
+      </c>
+      <c r="F88" s="112">
+        <f t="shared" si="1"/>
+        <v>5.2666666666666667E-2</v>
+      </c>
+      <c r="G88" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B89" t="s">
+        <v>942</v>
+      </c>
+      <c r="C89" s="112">
+        <v>18.7</v>
+      </c>
+      <c r="D89">
+        <v>30</v>
+      </c>
+      <c r="E89">
+        <v>600</v>
+      </c>
+      <c r="F89" s="112">
+        <f t="shared" si="1"/>
+        <v>3.1166666666666665E-2</v>
+      </c>
+      <c r="G89" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B90" t="s">
+        <v>943</v>
+      </c>
+      <c r="C90" s="112">
+        <v>7.6</v>
+      </c>
+      <c r="D90">
+        <v>30</v>
+      </c>
+      <c r="E90">
+        <v>600</v>
+      </c>
+      <c r="F90" s="112">
+        <f t="shared" si="1"/>
+        <v>1.2666666666666666E-2</v>
+      </c>
+      <c r="G90" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B91" t="s">
+        <v>944</v>
+      </c>
+      <c r="C91">
+        <v>20.45</v>
+      </c>
+      <c r="D91">
+        <v>30</v>
+      </c>
+      <c r="E91">
+        <v>600</v>
+      </c>
+      <c r="F91" s="112">
+        <f t="shared" si="1"/>
+        <v>3.4083333333333334E-2</v>
+      </c>
+      <c r="G91" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B92" t="s">
+        <v>945</v>
+      </c>
+      <c r="C92" s="112">
+        <v>8.35</v>
+      </c>
+      <c r="D92">
+        <v>30</v>
+      </c>
+      <c r="E92">
+        <v>600</v>
+      </c>
+      <c r="F92" s="112">
+        <f t="shared" si="1"/>
+        <v>1.3916666666666666E-2</v>
+      </c>
+      <c r="G92" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B93" t="s">
+        <v>946</v>
+      </c>
+      <c r="C93">
+        <v>14.5</v>
+      </c>
+      <c r="D93">
+        <v>30</v>
+      </c>
+      <c r="E93">
+        <v>600</v>
+      </c>
+      <c r="F93" s="112">
+        <f t="shared" si="1"/>
+        <v>2.4166666666666666E-2</v>
+      </c>
+      <c r="G93" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B94" t="s">
+        <v>947</v>
+      </c>
+      <c r="C94">
+        <v>16.75</v>
+      </c>
+      <c r="D94">
+        <v>30</v>
+      </c>
+      <c r="E94">
+        <v>600</v>
+      </c>
+      <c r="F94" s="112">
+        <f t="shared" si="1"/>
+        <v>2.7916666666666666E-2</v>
+      </c>
+      <c r="G94" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B95" t="s">
+        <v>948</v>
+      </c>
+      <c r="C95" s="112">
+        <v>9</v>
+      </c>
+      <c r="D95">
+        <v>30</v>
+      </c>
+      <c r="E95">
+        <v>600</v>
+      </c>
+      <c r="F95" s="112">
+        <f t="shared" si="1"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G95" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B96" t="s">
+        <v>949</v>
+      </c>
+      <c r="C96" s="112">
+        <v>24.05</v>
+      </c>
+      <c r="D96">
+        <v>30</v>
+      </c>
+      <c r="E96">
+        <v>600</v>
+      </c>
+      <c r="F96" s="112">
+        <f t="shared" si="1"/>
+        <v>4.0083333333333332E-2</v>
+      </c>
+      <c r="G96" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B97" t="s">
+        <v>950</v>
+      </c>
+      <c r="C97" s="112">
+        <v>13</v>
+      </c>
+      <c r="D97">
+        <v>30</v>
+      </c>
+      <c r="E97">
+        <v>600</v>
+      </c>
+      <c r="F97" s="112">
+        <f t="shared" si="1"/>
+        <v>2.1666666666666667E-2</v>
+      </c>
+      <c r="G97" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B98" t="s">
+        <v>951</v>
+      </c>
+      <c r="C98" s="112">
+        <v>7.45</v>
+      </c>
+      <c r="D98">
+        <v>30</v>
+      </c>
+      <c r="E98">
+        <v>600</v>
+      </c>
+      <c r="F98" s="112">
+        <f t="shared" si="1"/>
+        <v>1.2416666666666666E-2</v>
+      </c>
+      <c r="G98" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B99" t="s">
+        <v>952</v>
+      </c>
+      <c r="C99" s="112">
+        <v>13.25</v>
+      </c>
+      <c r="D99">
+        <v>30</v>
+      </c>
+      <c r="E99">
+        <v>600</v>
+      </c>
+      <c r="F99" s="112">
+        <f t="shared" si="1"/>
+        <v>2.2083333333333333E-2</v>
+      </c>
+      <c r="G99" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B100" t="s">
+        <v>953</v>
+      </c>
+      <c r="C100" s="112">
+        <v>20.75</v>
+      </c>
+      <c r="D100">
+        <v>30</v>
+      </c>
+      <c r="E100">
+        <v>600</v>
+      </c>
+      <c r="F100" s="112">
+        <f t="shared" si="1"/>
+        <v>3.4583333333333334E-2</v>
+      </c>
+      <c r="G100" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B101" t="s">
+        <v>954</v>
+      </c>
+      <c r="C101">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="D101">
+        <v>30</v>
+      </c>
+      <c r="E101">
+        <v>600</v>
+      </c>
+      <c r="F101" s="112">
+        <f t="shared" si="1"/>
+        <v>1.6750000000000001E-2</v>
+      </c>
+      <c r="G101" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B102" t="s">
+        <v>955</v>
+      </c>
+      <c r="C102" s="112">
+        <v>8.15</v>
+      </c>
+      <c r="D102">
+        <v>30</v>
+      </c>
+      <c r="E102">
+        <v>600</v>
+      </c>
+      <c r="F102" s="112">
+        <f t="shared" si="1"/>
+        <v>1.3583333333333334E-2</v>
+      </c>
+      <c r="G102" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B103" t="s">
+        <v>956</v>
+      </c>
+      <c r="C103">
+        <v>10.35</v>
+      </c>
+      <c r="D103">
+        <v>30</v>
+      </c>
+      <c r="E103">
+        <v>600</v>
+      </c>
+      <c r="F103" s="112">
+        <f t="shared" si="1"/>
+        <v>1.7249999999999998E-2</v>
+      </c>
+      <c r="G103" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B104" t="s">
+        <v>957</v>
+      </c>
+      <c r="C104" s="112">
+        <v>6.65</v>
+      </c>
+      <c r="D104">
+        <v>30</v>
+      </c>
+      <c r="E104">
+        <v>600</v>
+      </c>
+      <c r="F104" s="112">
+        <f t="shared" si="1"/>
+        <v>1.1083333333333334E-2</v>
+      </c>
+      <c r="G104" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B105" t="s">
+        <v>958</v>
+      </c>
+      <c r="C105">
+        <v>19.75</v>
+      </c>
+      <c r="D105">
+        <v>30</v>
+      </c>
+      <c r="E105">
+        <v>600</v>
+      </c>
+      <c r="F105" s="112">
+        <f t="shared" si="1"/>
+        <v>3.2916666666666664E-2</v>
+      </c>
+      <c r="G105" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B106" t="s">
+        <v>959</v>
+      </c>
+      <c r="C106" s="112">
+        <v>7.7</v>
+      </c>
+      <c r="D106">
+        <v>30</v>
+      </c>
+      <c r="E106">
+        <v>600</v>
+      </c>
+      <c r="F106" s="112">
+        <f t="shared" si="1"/>
+        <v>1.2833333333333334E-2</v>
+      </c>
+      <c r="G106" t="s">
+        <v>927</v>
+      </c>
+      <c r="I106" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B107" t="s">
+        <v>961</v>
+      </c>
+      <c r="C107">
+        <v>18.7</v>
+      </c>
+      <c r="D107">
+        <v>30</v>
+      </c>
+      <c r="E107">
+        <v>600</v>
+      </c>
+      <c r="F107" s="112">
+        <f t="shared" si="1"/>
+        <v>3.1166666666666665E-2</v>
+      </c>
+      <c r="G107" t="s">
+        <v>927</v>
+      </c>
+      <c r="I107" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B108" t="s">
+        <v>963</v>
+      </c>
+      <c r="C108" s="112">
+        <v>19.5</v>
+      </c>
+      <c r="D108">
+        <v>30</v>
+      </c>
+      <c r="E108">
+        <v>600</v>
+      </c>
+      <c r="F108" s="112">
+        <f t="shared" si="1"/>
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="G108" t="s">
+        <v>927</v>
+      </c>
+      <c r="I108" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B109" t="s">
+        <v>965</v>
+      </c>
+      <c r="C109" s="112">
+        <v>25</v>
+      </c>
+      <c r="D109">
+        <v>30</v>
+      </c>
+      <c r="E109">
+        <v>600</v>
+      </c>
+      <c r="F109" s="112">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G109" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="55">
+        <v>41218</v>
+      </c>
+      <c r="B110" t="s">
+        <v>966</v>
+      </c>
+      <c r="C110" s="112">
+        <v>25</v>
+      </c>
+      <c r="D110">
+        <v>30</v>
+      </c>
+      <c r="E110">
+        <v>600</v>
+      </c>
+      <c r="F110" s="112">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G110" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="F111" s="112"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="55">
+        <v>40984</v>
+      </c>
+      <c r="B112" t="s">
+        <v>967</v>
+      </c>
+      <c r="C112" s="112">
+        <v>29.99</v>
+      </c>
+      <c r="D112">
+        <v>15</v>
+      </c>
+      <c r="E112">
+        <v>300</v>
+      </c>
+      <c r="F112" s="113">
+        <f>C112/E112</f>
+        <v>9.9966666666666662E-2</v>
+      </c>
+      <c r="G112" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="55">
+        <v>40984</v>
+      </c>
+      <c r="B113" t="s">
+        <v>968</v>
+      </c>
+      <c r="C113" s="112">
+        <v>10.95</v>
+      </c>
+      <c r="D113">
+        <v>10</v>
+      </c>
+      <c r="E113">
+        <v>200</v>
+      </c>
+      <c r="F113" s="112">
+        <f>C113/E113</f>
+        <v>5.4749999999999993E-2</v>
+      </c>
+      <c r="G113" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="55">
+        <v>40984</v>
+      </c>
+      <c r="B114" t="s">
+        <v>969</v>
+      </c>
+      <c r="C114" s="112">
+        <v>5.95</v>
+      </c>
+      <c r="D114">
+        <v>10</v>
+      </c>
+      <c r="E114">
+        <v>200</v>
+      </c>
+      <c r="F114" s="112">
+        <f>C114/E114</f>
+        <v>2.9750000000000002E-2</v>
+      </c>
+      <c r="G114" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="55">
+        <v>40984</v>
+      </c>
+      <c r="B115" t="s">
+        <v>970</v>
+      </c>
+      <c r="C115" s="112">
+        <v>18.95</v>
+      </c>
+      <c r="D115">
+        <v>5</v>
+      </c>
+      <c r="E115">
+        <v>100</v>
+      </c>
+      <c r="F115" s="112">
+        <f>C115/E115</f>
+        <v>0.1895</v>
+      </c>
+      <c r="G115" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="55">
+        <v>40984</v>
+      </c>
+      <c r="B116" t="s">
+        <v>971</v>
+      </c>
+      <c r="C116" s="112">
+        <v>3.95</v>
+      </c>
+      <c r="D116">
+        <v>10</v>
+      </c>
+      <c r="E116">
+        <v>200</v>
+      </c>
+      <c r="F116" s="112">
+        <f>C116/E116</f>
+        <v>1.975E-2</v>
+      </c>
+      <c r="G116" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="F117" s="112"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="55">
+        <v>40984</v>
+      </c>
+      <c r="B118" t="s">
+        <v>972</v>
+      </c>
+      <c r="C118" s="112">
+        <v>3.8</v>
+      </c>
+      <c r="D118">
+        <v>10</v>
+      </c>
+      <c r="E118">
+        <v>200</v>
+      </c>
+      <c r="F118" s="112">
+        <f t="shared" ref="F118:F131" si="2">C118/E118</f>
+        <v>1.9E-2</v>
+      </c>
+      <c r="G118" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="55">
+        <v>40984</v>
+      </c>
+      <c r="B119" t="s">
+        <v>973</v>
+      </c>
+      <c r="C119" s="112">
+        <v>3.9</v>
+      </c>
+      <c r="D119">
+        <v>10</v>
+      </c>
+      <c r="E119">
+        <v>200</v>
+      </c>
+      <c r="F119" s="112">
+        <f t="shared" si="2"/>
+        <v>1.95E-2</v>
+      </c>
+      <c r="G119" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="55">
+        <v>40984</v>
+      </c>
+      <c r="B120" t="s">
+        <v>974</v>
+      </c>
+      <c r="C120" s="112">
+        <v>8.65</v>
+      </c>
+      <c r="D120">
+        <v>10</v>
+      </c>
+      <c r="E120">
+        <v>200</v>
+      </c>
+      <c r="F120" s="112">
+        <f t="shared" si="2"/>
+        <v>4.3250000000000004E-2</v>
+      </c>
+      <c r="G120" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="55">
+        <v>40984</v>
+      </c>
+      <c r="B121" t="s">
+        <v>975</v>
+      </c>
+      <c r="C121" s="112">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D121">
+        <v>10</v>
+      </c>
+      <c r="E121">
+        <v>200</v>
+      </c>
+      <c r="F121" s="112">
+        <f t="shared" si="2"/>
+        <v>2.0499999999999997E-2</v>
+      </c>
+      <c r="G121" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="55">
+        <v>40984</v>
+      </c>
+      <c r="B122" t="s">
+        <v>976</v>
+      </c>
+      <c r="C122" s="112">
+        <v>20.9</v>
+      </c>
+      <c r="D122">
+        <v>10</v>
+      </c>
+      <c r="E122">
+        <v>200</v>
+      </c>
+      <c r="F122" s="112">
+        <f t="shared" si="2"/>
+        <v>0.1045</v>
+      </c>
+      <c r="G122" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="55">
+        <v>40984</v>
+      </c>
+      <c r="B123" t="s">
+        <v>977</v>
+      </c>
+      <c r="C123" s="112">
+        <v>6.5</v>
+      </c>
+      <c r="D123">
+        <v>10</v>
+      </c>
+      <c r="E123">
+        <v>200</v>
+      </c>
+      <c r="F123" s="112">
+        <f t="shared" si="2"/>
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="G123" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="55">
+        <v>40984</v>
+      </c>
+      <c r="B124" t="s">
+        <v>978</v>
+      </c>
+      <c r="C124" s="112">
+        <v>3.6</v>
+      </c>
+      <c r="D124">
+        <v>10</v>
+      </c>
+      <c r="E124">
+        <v>200</v>
+      </c>
+      <c r="F124" s="112">
+        <f t="shared" si="2"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="G124" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="55">
+        <v>40984</v>
+      </c>
+      <c r="B125" t="s">
+        <v>979</v>
+      </c>
+      <c r="C125" s="112">
+        <v>12.3</v>
+      </c>
+      <c r="D125">
+        <v>10</v>
+      </c>
+      <c r="E125">
+        <v>200</v>
+      </c>
+      <c r="F125" s="112">
+        <f t="shared" si="2"/>
+        <v>6.1500000000000006E-2</v>
+      </c>
+      <c r="G125" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="55">
+        <v>40984</v>
+      </c>
+      <c r="B126" t="s">
+        <v>980</v>
+      </c>
+      <c r="C126" s="112">
+        <v>5</v>
+      </c>
+      <c r="D126">
+        <v>10</v>
+      </c>
+      <c r="E126">
+        <v>200</v>
+      </c>
+      <c r="F126" s="112">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G126" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="55">
+        <v>40984</v>
+      </c>
+      <c r="B127" t="s">
+        <v>981</v>
+      </c>
+      <c r="C127" s="112">
+        <v>7</v>
+      </c>
+      <c r="D127">
+        <v>10</v>
+      </c>
+      <c r="E127">
+        <v>200</v>
+      </c>
+      <c r="F127" s="112">
+        <f t="shared" si="2"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G127" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="E128">
+        <v>200</v>
+      </c>
+      <c r="F128" s="112">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G128" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="55">
+        <v>40997</v>
+      </c>
+      <c r="B129" t="s">
+        <v>982</v>
+      </c>
+      <c r="C129" s="112">
+        <v>4.25</v>
+      </c>
+      <c r="D129">
+        <v>10</v>
+      </c>
+      <c r="E129">
+        <v>200</v>
+      </c>
+      <c r="F129" s="112">
+        <f t="shared" si="2"/>
+        <v>2.1250000000000002E-2</v>
+      </c>
+      <c r="G129" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="55">
+        <v>40997</v>
+      </c>
+      <c r="B130" t="s">
+        <v>983</v>
+      </c>
+      <c r="C130" s="112">
+        <v>23.45</v>
+      </c>
+      <c r="D130">
+        <v>10</v>
+      </c>
+      <c r="E130">
+        <v>200</v>
+      </c>
+      <c r="F130" s="112">
+        <f t="shared" si="2"/>
+        <v>0.11724999999999999</v>
+      </c>
+      <c r="G130" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="55">
+        <v>40997</v>
+      </c>
+      <c r="B131" t="s">
+        <v>984</v>
+      </c>
+      <c r="C131">
+        <v>10.5</v>
+      </c>
+      <c r="D131">
+        <v>10</v>
+      </c>
+      <c r="E131">
+        <v>200</v>
+      </c>
+      <c r="F131" s="112">
+        <f t="shared" si="2"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="G131" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="55">
+        <v>40997</v>
+      </c>
+      <c r="B132" t="s">
+        <v>985</v>
+      </c>
+      <c r="C132">
+        <v>35</v>
+      </c>
+      <c r="F132" s="112"/>
+      <c r="G132" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="B135" t="s">
+        <v>986</v>
+      </c>
+      <c r="C135">
+        <v>22.55</v>
+      </c>
+      <c r="D135">
+        <v>15</v>
+      </c>
+      <c r="E135">
+        <v>300</v>
+      </c>
+      <c r="F135" s="57">
+        <f>C135/E135</f>
+        <v>7.5166666666666673E-2</v>
+      </c>
+      <c r="G135" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="B136" t="s">
+        <v>988</v>
+      </c>
+      <c r="C136">
+        <v>11</v>
+      </c>
+      <c r="D136">
+        <v>15</v>
+      </c>
+      <c r="E136">
+        <v>300</v>
+      </c>
+      <c r="F136" s="57">
+        <f>C136/E136</f>
+        <v>3.6666666666666667E-2</v>
+      </c>
+      <c r="G136" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="B137" t="s">
+        <v>989</v>
+      </c>
+      <c r="C137">
+        <v>23.1</v>
+      </c>
+      <c r="D137">
+        <v>15</v>
+      </c>
+      <c r="E137">
+        <v>300</v>
+      </c>
+      <c r="F137" s="57">
+        <f>C137/E137</f>
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="G137" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="B140" t="s">
+        <v>990</v>
+      </c>
+      <c r="C140" s="89">
+        <v>69.98</v>
+      </c>
+      <c r="D140">
+        <v>5</v>
+      </c>
+      <c r="E140">
+        <v>100</v>
+      </c>
+      <c r="F140">
+        <f>C140/E140</f>
+        <v>0.69980000000000009</v>
+      </c>
+      <c r="G140" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="B141" t="s">
+        <v>992</v>
+      </c>
+      <c r="F141" s="89">
+        <v>2</v>
+      </c>
+      <c r="G141" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="B142" t="s">
+        <v>994</v>
+      </c>
+      <c r="C142">
+        <v>10</v>
+      </c>
+      <c r="D142">
+        <v>6</v>
+      </c>
+      <c r="F142">
+        <f>C142/D142</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="G142" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="B144" t="s">
+        <v>995</v>
+      </c>
+      <c r="C144">
+        <v>23.99</v>
+      </c>
+      <c r="D144">
+        <v>50</v>
+      </c>
+      <c r="F144">
+        <f>C144/D144</f>
+        <v>0.47979999999999995</v>
+      </c>
+      <c r="G144" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7">
+      <c r="B145" t="s">
+        <v>996</v>
+      </c>
+      <c r="C145">
+        <v>35.01</v>
+      </c>
+      <c r="D145">
+        <v>50</v>
+      </c>
+      <c r="F145">
+        <f>C145/D145</f>
+        <v>0.70019999999999993</v>
+      </c>
+      <c r="G145" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7">
+      <c r="B146" t="s">
+        <v>997</v>
+      </c>
+      <c r="C146">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="D146">
+        <v>100</v>
+      </c>
+      <c r="F146">
+        <f>C146/D146</f>
+        <v>9.9499999999999991E-2</v>
+      </c>
+      <c r="G146" t="s">
+        <v>993</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CC0257-481A-8C46-B716-B4B043704706}">
+  <sheetPr published="0"/>
+  <dimension ref="A1:I229"/>
+  <sheetViews>
+    <sheetView view="pageLayout" topLeftCell="A170" zoomScale="143" zoomScalePageLayoutView="143" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="7"/>
+    <col min="6" max="6" width="6.83203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.6640625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="114" t="s">
+        <v>998</v>
+      </c>
+      <c r="B1" s="114" t="s">
+        <v>999</v>
+      </c>
+      <c r="C1" s="114" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D1" s="114" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E1" s="114" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F1" s="114" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G1" s="114" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="115" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="117" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B3" s="116">
+        <v>1</v>
+      </c>
+      <c r="C3" s="116"/>
+      <c r="D3" s="118">
+        <f>'[1]Oils 20152016'!F53</f>
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="119" t="s">
+        <v>863</v>
+      </c>
+      <c r="B4" s="116">
+        <v>2</v>
+      </c>
+      <c r="C4" s="116"/>
+      <c r="D4" s="118">
+        <f>COGS!J8+COGS!J9*B4</f>
+        <v>0.29116999999999998</v>
+      </c>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="119" t="s">
+        <v>859</v>
+      </c>
+      <c r="B5" s="116">
+        <v>2</v>
+      </c>
+      <c r="C5" s="116"/>
+      <c r="D5" s="118">
+        <f>COGS!J5*B5</f>
+        <v>3.918E-2</v>
+      </c>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="119" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B6" s="116">
+        <v>1</v>
+      </c>
+      <c r="C6" s="116"/>
+      <c r="D6" s="118">
+        <f>'[1]Oils 20152016'!F80*B6</f>
+        <v>1.7249999999999998E-2</v>
+      </c>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="119" t="s">
+        <v>967</v>
+      </c>
+      <c r="B7" s="116">
+        <v>1</v>
+      </c>
+      <c r="C7" s="116"/>
+      <c r="D7" s="118">
+        <f>'[1]Oils 20152016'!F89</f>
+        <v>9.9966666666666662E-2</v>
+      </c>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="119" t="s">
+        <v>912</v>
+      </c>
+      <c r="B8" s="116">
+        <v>2</v>
+      </c>
+      <c r="C8" s="116"/>
+      <c r="D8" s="118">
+        <f>COGS!F59*B8</f>
+        <v>0.13227941176470587</v>
+      </c>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="119" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B9" s="116">
+        <v>1</v>
+      </c>
+      <c r="C9" s="116"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="119"/>
+      <c r="B10" s="116">
+        <f>SUM(B3:B9)</f>
+        <v>10</v>
+      </c>
+      <c r="C10" s="116"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="115" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="121" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B12" s="116">
+        <v>190</v>
+      </c>
+      <c r="C12" s="116">
+        <f>COGS!F41</f>
+        <v>1.4479166666666666E-2</v>
+      </c>
+      <c r="D12" s="120">
+        <f>B12*C12</f>
+        <v>2.7510416666666666</v>
+      </c>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="122" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="115" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="116"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="119" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B15" s="116"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="118">
+        <f>E15/F15</f>
+        <v>0.63996000000000008</v>
+      </c>
+      <c r="E15" s="116">
+        <v>319.98</v>
+      </c>
+      <c r="F15" s="116">
+        <v>500</v>
+      </c>
+      <c r="G15" s="116"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="119" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B16" s="116"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="120">
+        <f>COGS!F71</f>
+        <v>0.19041666666666668</v>
+      </c>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="119" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B17" s="116"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="120">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="115" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B18" s="116"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="118">
+        <f>SUM(D5:D17)+D15</f>
+        <v>4.6100544117647058</v>
+      </c>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="C19" s="18"/>
+      <c r="D19" s="124"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D20" s="125" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="126" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D21" s="124"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="127" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+      <c r="C22" s="128">
+        <f>'[1]Oils 20152016'!F53</f>
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="D22" s="124">
+        <f>C22*B22</f>
+        <v>3.3500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="129" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B23" s="7">
+        <v>2</v>
+      </c>
+      <c r="C23" s="7">
+        <f>COGS!J23</f>
+        <v>0.122975</v>
+      </c>
+      <c r="D23" s="130">
+        <f t="shared" ref="D23:D31" si="0">C23*B23</f>
+        <v>0.24595</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="131" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B24" s="7">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <f>COGS!J5</f>
+        <v>1.959E-2</v>
+      </c>
+      <c r="D24" s="124">
+        <f t="shared" si="0"/>
+        <v>5.8770000000000003E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="131" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B25" s="7">
+        <v>2</v>
+      </c>
+      <c r="C25" s="7">
+        <f>'[1]Oils 20152016'!F80</f>
+        <v>1.7249999999999998E-2</v>
+      </c>
+      <c r="D25" s="124">
+        <f t="shared" si="0"/>
+        <v>3.4499999999999996E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="132" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B26" s="7">
+        <v>4</v>
+      </c>
+      <c r="C26" s="7">
+        <f>COGS!J27</f>
+        <v>2.2190000000000001E-2</v>
+      </c>
+      <c r="D26" s="130">
+        <f t="shared" si="0"/>
+        <v>8.8760000000000006E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="131"/>
+      <c r="B27" s="7">
+        <f>SUM(B22:B26)</f>
+        <v>12</v>
+      </c>
+      <c r="D27" s="124">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="126" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D28" s="124">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="133" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B29" s="7">
+        <v>190</v>
+      </c>
+      <c r="C29" s="7">
+        <f>COGS!F41</f>
+        <v>1.4479166666666666E-2</v>
+      </c>
+      <c r="D29" s="130">
+        <f t="shared" si="0"/>
+        <v>2.7510416666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="134" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D30" s="130">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="134" t="s">
+        <v>902</v>
+      </c>
+      <c r="D31" s="130">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="131"/>
+      <c r="D32" s="130"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="126" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D33" s="124"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="131" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D34" s="124">
+        <f>E34/F34</f>
+        <v>0.63996000000000008</v>
+      </c>
+      <c r="E34" s="7">
+        <v>319.98</v>
+      </c>
+      <c r="F34" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="131" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="124">
+        <f>COGS!F71</f>
+        <v>0.19041666666666668</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="131" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="120">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="126" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D37" s="124">
+        <f>SUM(D22:D36)</f>
+        <v>4.1428983333333331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1"/>
+      <c r="D38" s="124"/>
+    </row>
+    <row r="39" spans="1:6" s="116" customFormat="1">
+      <c r="A39" s="114" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B39" s="114" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C39" s="114" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D39" s="135" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="116" customFormat="1">
+      <c r="A40" s="119"/>
+      <c r="D40" s="118"/>
+    </row>
+    <row r="41" spans="1:6" s="116" customFormat="1">
+      <c r="A41" s="115" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D41" s="118"/>
+    </row>
+    <row r="42" spans="1:6" s="116" customFormat="1">
+      <c r="A42" s="117" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B42" s="116">
+        <v>15</v>
+      </c>
+      <c r="C42" s="116">
+        <f>COGS!J22</f>
+        <v>1.959E-2</v>
+      </c>
+      <c r="D42" s="118">
+        <f t="shared" ref="D42:D48" si="1">B42*C42</f>
+        <v>0.29385</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="116" customFormat="1">
+      <c r="A43" s="119" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B43" s="116">
+        <v>5</v>
+      </c>
+      <c r="C43" s="116">
+        <f>COGS!J13</f>
+        <v>3.1475000000000003E-2</v>
+      </c>
+      <c r="D43" s="118">
+        <f t="shared" si="1"/>
+        <v>0.15737500000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="116" customFormat="1">
+      <c r="A44" s="119" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B44" s="116">
+        <v>5</v>
+      </c>
+      <c r="C44" s="116">
+        <f>COGS!F140</f>
+        <v>0.69980000000000009</v>
+      </c>
+      <c r="D44" s="118">
+        <f t="shared" si="1"/>
+        <v>3.4990000000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="116" customFormat="1">
+      <c r="A45" s="119" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B45" s="116">
+        <v>15</v>
+      </c>
+      <c r="C45" s="136">
+        <f>COGS!F95</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D45" s="118">
+        <f t="shared" si="1"/>
+        <v>0.22499999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="116" customFormat="1">
+      <c r="A46" s="119" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B46" s="116">
+        <v>2</v>
+      </c>
+      <c r="C46" s="136">
+        <f>COGS!J8</f>
+        <v>0.21839</v>
+      </c>
+      <c r="D46" s="118">
+        <f t="shared" si="1"/>
+        <v>0.43678</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="116" customFormat="1">
+      <c r="A47" s="119" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B47" s="116">
+        <v>2</v>
+      </c>
+      <c r="C47" s="136">
+        <f>COGS!F86</f>
+        <v>4.8083333333333339E-2</v>
+      </c>
+      <c r="D47" s="118">
+        <f t="shared" si="1"/>
+        <v>9.6166666666666678E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="116" customFormat="1">
+      <c r="A48" s="119" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B48" s="116">
+        <v>6</v>
+      </c>
+      <c r="C48" s="116">
+        <f>COGS!J29</f>
+        <v>3.6389999999999999E-2</v>
+      </c>
+      <c r="D48" s="118">
+        <f t="shared" si="1"/>
+        <v>0.21833999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="116" customFormat="1">
+      <c r="A49" s="119" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B49" s="116">
+        <f>SUM(B42:B48)</f>
+        <v>50</v>
+      </c>
+      <c r="D49" s="118"/>
+    </row>
+    <row r="50" spans="1:4" s="116" customFormat="1">
+      <c r="A50" s="115" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D50" s="118"/>
+    </row>
+    <row r="51" spans="1:4" s="116" customFormat="1">
+      <c r="A51" s="119" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B51" s="116">
+        <f>550</f>
+        <v>550</v>
+      </c>
+      <c r="C51" s="116">
+        <f>COGS!F38</f>
+        <v>5.7291666666666663E-3</v>
+      </c>
+      <c r="D51" s="118">
+        <f>B51*C51</f>
+        <v>3.1510416666666665</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="116" customFormat="1">
+      <c r="A52" s="119" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D52" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="116" customFormat="1">
+      <c r="A53" s="119" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D53" s="120">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="116" customFormat="1">
+      <c r="A54" s="119" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D54" s="118">
+        <f>COGS!F71</f>
+        <v>0.19041666666666668</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="116" customFormat="1">
+      <c r="A55" s="119" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D55" s="118">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="116" customFormat="1">
+      <c r="A56" s="119" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D56" s="118">
+        <f>SUM(D41:D55)</f>
+        <v>10.277969999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="11" customFormat="1">
+      <c r="D57" s="137"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D58" s="124"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1"/>
+      <c r="D59" s="124"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1"/>
+      <c r="D60" s="124"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1"/>
+      <c r="D61" s="124"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1"/>
+      <c r="D62" s="124"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1"/>
+      <c r="D63" s="124"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1"/>
+      <c r="D64" s="124"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="7" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="124"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C66" s="18"/>
+      <c r="D66" s="124"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C67" s="18"/>
+      <c r="D67" s="124"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="138" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B68" s="138"/>
+      <c r="C68" s="139">
+        <f>D68/E68</f>
+        <v>4.4516666666666636</v>
+      </c>
+      <c r="D68" s="120">
+        <f>373.4-E15</f>
+        <v>53.419999999999959</v>
+      </c>
+      <c r="E68" s="138">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="7" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D69" s="124">
+        <f>COGS!F71</f>
+        <v>0.19041666666666668</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="C70" s="7">
+        <f>SUM(B51:B68)</f>
+        <v>550</v>
+      </c>
+      <c r="D70" s="124"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="D71" s="124"/>
+    </row>
+    <row r="72" spans="1:8" s="116" customFormat="1">
+      <c r="A72" s="114" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B72" s="114" t="s">
+        <v>999</v>
+      </c>
+      <c r="C72" s="114" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D72" s="135" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E72" s="114" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F72" s="114" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G72" s="116" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="116" customFormat="1">
+      <c r="D73" s="118"/>
+    </row>
+    <row r="74" spans="1:8" s="116" customFormat="1">
+      <c r="A74" s="114" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D74" s="118"/>
+    </row>
+    <row r="75" spans="1:8" s="116" customFormat="1">
+      <c r="A75" s="140" t="s">
+        <v>858</v>
+      </c>
+      <c r="B75" s="116">
+        <v>2</v>
+      </c>
+      <c r="C75" s="141">
+        <f>COGS!J4</f>
+        <v>2.479E-2</v>
+      </c>
+      <c r="D75" s="118">
+        <f>C75*B75</f>
+        <v>4.9579999999999999E-2</v>
+      </c>
+      <c r="G75" s="116">
+        <v>50</v>
+      </c>
+      <c r="H75" s="142">
+        <f>G75*C75</f>
+        <v>1.2395</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="116" customFormat="1">
+      <c r="A76" s="116" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B76" s="116">
+        <v>3</v>
+      </c>
+      <c r="C76" s="141">
+        <f>COGS!J12</f>
+        <v>1.959E-2</v>
+      </c>
+      <c r="D76" s="118">
+        <f>C76*B76</f>
+        <v>5.8770000000000003E-2</v>
+      </c>
+      <c r="G76" s="116">
+        <v>50</v>
+      </c>
+      <c r="H76" s="116">
+        <f>C76*G76</f>
+        <v>0.97950000000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="116" customFormat="1">
+      <c r="A77" s="116" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B77" s="116">
+        <v>2</v>
+      </c>
+      <c r="C77" s="141">
+        <f>COGS!J26</f>
+        <v>2.479E-2</v>
+      </c>
+      <c r="D77" s="118">
+        <f>C77*B77</f>
+        <v>4.9579999999999999E-2</v>
+      </c>
+      <c r="G77" s="116">
+        <v>50</v>
+      </c>
+      <c r="H77" s="116">
+        <f>G77*C77</f>
+        <v>1.2395</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="116" customFormat="1">
+      <c r="A78" s="116" t="s">
+        <v>865</v>
+      </c>
+      <c r="B78" s="116">
+        <v>1</v>
+      </c>
+      <c r="C78" s="141">
+        <f>COGS!J11*B78</f>
+        <v>1.959E-2</v>
+      </c>
+      <c r="D78" s="118">
+        <f>C78*B78</f>
+        <v>1.959E-2</v>
+      </c>
+      <c r="G78" s="116">
+        <v>50</v>
+      </c>
+      <c r="H78" s="116">
+        <f>G78*C78</f>
+        <v>0.97950000000000004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="116" customFormat="1">
+      <c r="B79" s="116">
+        <f>SUM(B75:B78)</f>
+        <v>8</v>
+      </c>
+      <c r="D79" s="118">
+        <f>SUM(D75:D78)</f>
+        <v>0.17752000000000001</v>
+      </c>
+      <c r="H79" s="142">
+        <f>SUM(H75:H78)</f>
+        <v>4.4380000000000006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="116" customFormat="1">
+      <c r="D80" s="118"/>
+    </row>
+    <row r="81" spans="1:6" s="116" customFormat="1">
+      <c r="A81" s="114" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D81" s="118"/>
+    </row>
+    <row r="82" spans="1:6" s="116" customFormat="1">
+      <c r="A82" s="143" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B82" s="116">
+        <v>190</v>
+      </c>
+      <c r="C82" s="116">
+        <f>COGS!J25</f>
+        <v>3.5899999999999999E-3</v>
+      </c>
+      <c r="D82" s="118">
+        <f>C82*B82</f>
+        <v>0.68209999999999993</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="116" customFormat="1">
+      <c r="A83" s="119"/>
+      <c r="D83" s="118"/>
+    </row>
+    <row r="84" spans="1:6" s="116" customFormat="1">
+      <c r="A84" s="114" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D84" s="118"/>
+    </row>
+    <row r="85" spans="1:6" s="116" customFormat="1">
+      <c r="A85" s="116" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D85" s="118">
+        <f>E85/F85</f>
+        <v>0.63996000000000008</v>
+      </c>
+      <c r="E85" s="116">
+        <v>319.98</v>
+      </c>
+      <c r="F85" s="116">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="116" customFormat="1">
+      <c r="A86" s="116" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C86" s="123"/>
+      <c r="D86" s="118">
+        <f>COGS!F71</f>
+        <v>0.19041666666666668</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="116" customFormat="1">
+      <c r="A87" s="114" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C87" s="123"/>
+      <c r="D87" s="118">
+        <f>SUM(D79:D86)</f>
+        <v>1.6899966666666666</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="D88" s="124"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="D89" s="124"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D90" s="124"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="131" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B91" s="7">
+        <v>30</v>
+      </c>
+      <c r="C91" s="7">
+        <f>COGS!F63</f>
+        <v>0.03</v>
+      </c>
+      <c r="D91" s="124">
+        <f>C91*B91</f>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="131" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B92" s="7">
+        <v>90</v>
+      </c>
+      <c r="C92" s="7">
+        <f>COGS!J4</f>
+        <v>2.479E-2</v>
+      </c>
+      <c r="D92" s="124">
+        <f>B92*COGS!J4</f>
+        <v>2.2311000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="131" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B93" s="7">
+        <v>90</v>
+      </c>
+      <c r="C93" s="7">
+        <f>COGS!J10</f>
+        <v>1.959E-2</v>
+      </c>
+      <c r="D93" s="124">
+        <f>B93*COGS!J10</f>
+        <v>1.7630999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="131" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B94" s="7">
+        <v>90</v>
+      </c>
+      <c r="C94" s="7">
+        <f>COGS!J10</f>
+        <v>1.959E-2</v>
+      </c>
+      <c r="D94" s="124">
+        <f>B94*COGS!J11</f>
+        <v>1.7630999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="131" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D95" s="120">
+        <f>COGS!F71</f>
+        <v>0.19041666666666668</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="131" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D96" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="131" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D97" s="120">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="126" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D98" s="124">
+        <f>SUM(D91:D97)</f>
+        <v>7.9477166666666657</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="126"/>
+      <c r="D99" s="124"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="114" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B100" s="114" t="s">
+        <v>999</v>
+      </c>
+      <c r="C100" s="114" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D100" s="135" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E100" s="114" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F100" s="114" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G100" s="116"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="116"/>
+      <c r="B101" s="116" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C101" s="116"/>
+      <c r="D101" s="118"/>
+      <c r="E101" s="116"/>
+      <c r="F101" s="116"/>
+      <c r="G101" s="116"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="114" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B102" s="116"/>
+      <c r="C102" s="116"/>
+      <c r="D102" s="118"/>
+      <c r="E102" s="116"/>
+      <c r="F102" s="116"/>
+      <c r="G102" s="116"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="117" t="s">
+        <v>858</v>
+      </c>
+      <c r="B103" s="116">
+        <v>100</v>
+      </c>
+      <c r="C103" s="141">
+        <f>COGS!J4</f>
+        <v>2.479E-2</v>
+      </c>
+      <c r="D103" s="118">
+        <f t="shared" ref="D103:D108" si="2">C103*B103</f>
+        <v>2.4790000000000001</v>
+      </c>
+      <c r="E103" s="116"/>
+      <c r="F103" s="116"/>
+      <c r="G103" s="116"/>
+      <c r="H103" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="119" t="s">
+        <v>968</v>
+      </c>
+      <c r="B104" s="116">
+        <v>50</v>
+      </c>
+      <c r="C104" s="141">
+        <f>COGS!F105</f>
+        <v>3.2916666666666664E-2</v>
+      </c>
+      <c r="D104" s="118">
+        <f t="shared" si="2"/>
+        <v>1.6458333333333333</v>
+      </c>
+      <c r="E104" s="116"/>
+      <c r="F104" s="116"/>
+      <c r="G104" s="116"/>
+      <c r="H104" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="119" t="s">
+        <v>970</v>
+      </c>
+      <c r="B105" s="116">
+        <v>5</v>
+      </c>
+      <c r="C105" s="141">
+        <f>COGS!F115</f>
+        <v>0.1895</v>
+      </c>
+      <c r="D105" s="118">
+        <f t="shared" si="2"/>
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="E105" s="116"/>
+      <c r="F105" s="116"/>
+      <c r="G105" s="116"/>
+      <c r="H105" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="119" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B106" s="116">
+        <v>10</v>
+      </c>
+      <c r="C106" s="141">
+        <f>COGS!J27+COGS!J28</f>
+        <v>4.9579999999999999E-2</v>
+      </c>
+      <c r="D106" s="118">
+        <f t="shared" si="2"/>
+        <v>0.49580000000000002</v>
+      </c>
+      <c r="E106" s="116"/>
+      <c r="F106" s="116"/>
+      <c r="G106" s="116"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="119" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B107" s="116">
+        <v>25</v>
+      </c>
+      <c r="C107" s="141">
+        <f>COGS!J21</f>
+        <v>4.419E-2</v>
+      </c>
+      <c r="D107" s="118">
+        <f t="shared" si="2"/>
+        <v>1.1047499999999999</v>
+      </c>
+      <c r="E107" s="116"/>
+      <c r="F107" s="116"/>
+      <c r="G107" s="116"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="119" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B108" s="116">
+        <v>10</v>
+      </c>
+      <c r="C108" s="141">
+        <f>COGS!J7</f>
+        <v>9.3589999999999993E-2</v>
+      </c>
+      <c r="D108" s="118">
+        <f t="shared" si="2"/>
+        <v>0.93589999999999995</v>
+      </c>
+      <c r="E108" s="116"/>
+      <c r="F108" s="116"/>
+      <c r="G108" s="116"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="119"/>
+      <c r="B109" s="116">
+        <f>SUM(B103:B108)</f>
+        <v>200</v>
+      </c>
+      <c r="C109" s="116"/>
+      <c r="D109" s="118">
+        <f>SUM(D103:D108)</f>
+        <v>7.6087833333333332</v>
+      </c>
+      <c r="E109" s="116"/>
+      <c r="F109" s="116"/>
+      <c r="G109" s="116"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="119"/>
+      <c r="B110" s="116"/>
+      <c r="C110" s="116"/>
+      <c r="D110" s="118"/>
+      <c r="E110" s="116"/>
+      <c r="F110" s="116"/>
+      <c r="G110" s="116"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="119" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B111" s="116"/>
+      <c r="C111" s="116"/>
+      <c r="D111" s="118">
+        <f>COGS!F64</f>
+        <v>0.12</v>
+      </c>
+      <c r="E111" s="116"/>
+      <c r="F111" s="116"/>
+      <c r="G111" s="116"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="119" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B112" s="116"/>
+      <c r="C112" s="123"/>
+      <c r="D112" s="118">
+        <f>COGS!F98</f>
+        <v>1.2416666666666666E-2</v>
+      </c>
+      <c r="E112" s="116"/>
+      <c r="F112" s="116"/>
+      <c r="G112" s="116"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="119" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B113" s="116"/>
+      <c r="C113" s="123"/>
+      <c r="D113" s="118">
+        <v>0.1</v>
+      </c>
+      <c r="E113" s="116"/>
+      <c r="F113" s="116"/>
+      <c r="G113" s="116"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="115" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B114" s="116"/>
+      <c r="C114" s="123"/>
+      <c r="D114" s="118">
+        <f>SUM(D109:D113)</f>
+        <v>7.8411999999999997</v>
+      </c>
+      <c r="E114" s="116"/>
+      <c r="F114" s="116"/>
+      <c r="G114" s="116"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="126" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="127" t="s">
+        <v>865</v>
+      </c>
+      <c r="B118" s="7">
+        <v>1</v>
+      </c>
+      <c r="C118" s="128">
+        <f>COGS!J11</f>
+        <v>1.959E-2</v>
+      </c>
+      <c r="D118" s="124">
+        <f>C118*B118</f>
+        <v>1.959E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="129" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B119" s="7">
+        <v>2</v>
+      </c>
+      <c r="C119" s="7">
+        <f>COGS!J18</f>
+        <v>1.1390000000000001E-2</v>
+      </c>
+      <c r="D119" s="130">
+        <f t="shared" ref="D119:D125" si="3">C119*B119</f>
+        <v>2.2780000000000002E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="131" t="s">
+        <v>858</v>
+      </c>
+      <c r="B120" s="7">
+        <v>3</v>
+      </c>
+      <c r="C120" s="7">
+        <f>COGS!J4</f>
+        <v>2.479E-2</v>
+      </c>
+      <c r="D120" s="124">
+        <f t="shared" si="3"/>
+        <v>7.4369999999999992E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="131" t="s">
+        <v>861</v>
+      </c>
+      <c r="B121" s="7">
+        <v>2</v>
+      </c>
+      <c r="C121" s="7">
+        <f>COGS!J7</f>
+        <v>9.3589999999999993E-2</v>
+      </c>
+      <c r="D121" s="124">
+        <f t="shared" si="3"/>
+        <v>0.18717999999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="129" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B122" s="7">
+        <v>2</v>
+      </c>
+      <c r="C122" s="7">
+        <f>COGS!J21</f>
+        <v>4.419E-2</v>
+      </c>
+      <c r="D122" s="130">
+        <f t="shared" si="3"/>
+        <v>8.838E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="131"/>
+      <c r="B123" s="7">
+        <f>SUM(B118:B122)</f>
+        <v>10</v>
+      </c>
+      <c r="D123" s="124">
+        <f>SUM(D118:D122)</f>
+        <v>0.39229999999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="126" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D124" s="124"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="131" t="s">
+        <v>878</v>
+      </c>
+      <c r="B125" s="7">
+        <v>190</v>
+      </c>
+      <c r="C125" s="7">
+        <f>COGS!J25</f>
+        <v>3.5899999999999999E-3</v>
+      </c>
+      <c r="D125" s="130">
+        <f t="shared" si="3"/>
+        <v>0.68209999999999993</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="133"/>
+      <c r="D126" s="130"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="126" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D127" s="124"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="131" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D128" s="124">
+        <f>E128/F128</f>
+        <v>0.63996000000000008</v>
+      </c>
+      <c r="E128" s="7">
+        <v>319.98</v>
+      </c>
+      <c r="F128" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="131" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C129" s="18"/>
+      <c r="D129" s="124">
+        <f>COGS!F71</f>
+        <v>0.19041666666666668</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="131" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C130" s="18"/>
+      <c r="D130" s="120">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="126" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D131" s="124">
+        <f>SUM(D118:D130)</f>
+        <v>2.3970766666666665</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="114" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B133" s="114" t="s">
+        <v>999</v>
+      </c>
+      <c r="C133" s="114" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D133" s="114" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E133" s="114" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F133" s="114" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G133" s="116"/>
+      <c r="H133" s="7" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="116"/>
+      <c r="B134" s="116" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C134" s="116"/>
+      <c r="D134" s="116"/>
+      <c r="E134" s="116"/>
+      <c r="F134" s="116"/>
+      <c r="G134" s="116"/>
+      <c r="H134" s="29">
+        <v>41415</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="114" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B135" s="116"/>
+      <c r="C135" s="116"/>
+      <c r="D135" s="116"/>
+      <c r="E135" s="116"/>
+      <c r="F135" s="116"/>
+      <c r="G135" s="116"/>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="117" t="s">
+        <v>863</v>
+      </c>
+      <c r="B136" s="116">
+        <v>50</v>
+      </c>
+      <c r="C136" s="141">
+        <f>COGS!F84</f>
+        <v>3.8666666666666669E-2</v>
+      </c>
+      <c r="D136" s="118">
+        <f>C136*B136</f>
+        <v>1.9333333333333333</v>
+      </c>
+      <c r="E136" s="116"/>
+      <c r="F136" s="116"/>
+      <c r="G136" s="116"/>
+      <c r="H136" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="119" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B137" s="116">
+        <v>50</v>
+      </c>
+      <c r="C137" s="141">
+        <f>COGS!J22</f>
+        <v>1.959E-2</v>
+      </c>
+      <c r="D137" s="118">
+        <f t="shared" ref="D137:D142" si="4">C137*B137</f>
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="E137" s="116"/>
+      <c r="F137" s="116"/>
+      <c r="G137" s="116"/>
+      <c r="H137" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="119" t="s">
+        <v>865</v>
+      </c>
+      <c r="B138" s="116">
+        <v>50</v>
+      </c>
+      <c r="C138" s="141">
+        <f>COGS!J11</f>
+        <v>1.959E-2</v>
+      </c>
+      <c r="D138" s="118">
+        <f t="shared" si="4"/>
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="E138" s="116"/>
+      <c r="F138" s="116"/>
+      <c r="G138" s="116"/>
+      <c r="H138" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="119" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B139" s="116">
+        <v>10</v>
+      </c>
+      <c r="C139" s="141">
+        <f>COGS!J6</f>
+        <v>5.3975000000000002E-2</v>
+      </c>
+      <c r="D139" s="118">
+        <f t="shared" si="4"/>
+        <v>0.53975000000000006</v>
+      </c>
+      <c r="E139" s="116"/>
+      <c r="F139" s="116"/>
+      <c r="G139" s="116"/>
+      <c r="H139" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="119" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B140" s="116">
+        <v>25</v>
+      </c>
+      <c r="C140" s="141">
+        <f>COGS!J21</f>
+        <v>4.419E-2</v>
+      </c>
+      <c r="D140" s="118">
+        <f t="shared" si="4"/>
+        <v>1.1047499999999999</v>
+      </c>
+      <c r="E140" s="116"/>
+      <c r="F140" s="116"/>
+      <c r="G140" s="116"/>
+      <c r="H140" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="119" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B141" s="116">
+        <v>10</v>
+      </c>
+      <c r="C141" s="141">
+        <f>COGS!F104</f>
+        <v>1.1083333333333334E-2</v>
+      </c>
+      <c r="D141" s="118">
+        <f t="shared" si="4"/>
+        <v>0.11083333333333334</v>
+      </c>
+      <c r="E141" s="116"/>
+      <c r="F141" s="116"/>
+      <c r="G141" s="116"/>
+      <c r="H141" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="119" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B142" s="116">
+        <v>5</v>
+      </c>
+      <c r="C142" s="141">
+        <f>COGS!F77</f>
+        <v>4.4916666666666667E-2</v>
+      </c>
+      <c r="D142" s="118">
+        <f t="shared" si="4"/>
+        <v>0.22458333333333333</v>
+      </c>
+      <c r="E142" s="116"/>
+      <c r="F142" s="116"/>
+      <c r="G142" s="116"/>
+      <c r="H142" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="119"/>
+      <c r="B143" s="116">
+        <f>SUM(B136:B142)</f>
+        <v>200</v>
+      </c>
+      <c r="C143" s="116"/>
+      <c r="D143" s="118">
+        <f>SUM(D136:D142)</f>
+        <v>5.8722499999999993</v>
+      </c>
+      <c r="E143" s="116"/>
+      <c r="F143" s="116"/>
+      <c r="G143" s="116"/>
+      <c r="H143" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="119"/>
+      <c r="B144" s="116"/>
+      <c r="C144" s="116"/>
+      <c r="D144" s="118"/>
+      <c r="E144" s="116"/>
+      <c r="F144" s="116"/>
+      <c r="G144" s="116"/>
+      <c r="H144" s="7">
+        <v>10</v>
+      </c>
+      <c r="I144" s="7" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="119" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B145" s="116"/>
+      <c r="C145" s="116">
+        <f>COGS!F64</f>
+        <v>0.12</v>
+      </c>
+      <c r="D145" s="118">
+        <f>COGS!F97</f>
+        <v>2.1666666666666667E-2</v>
+      </c>
+      <c r="E145" s="116"/>
+      <c r="F145" s="116"/>
+      <c r="G145" s="116"/>
+      <c r="H145" s="7">
+        <v>5</v>
+      </c>
+      <c r="I145" s="7" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="119" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B146" s="116"/>
+      <c r="C146" s="123">
+        <f>COGS!F71</f>
+        <v>0.19041666666666668</v>
+      </c>
+      <c r="D146" s="118">
+        <f>COGS!F131</f>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="E146" s="116"/>
+      <c r="F146" s="116"/>
+      <c r="G146" s="116"/>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="119" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B147" s="116"/>
+      <c r="C147" s="139">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="D147" s="118">
+        <v>0.1</v>
+      </c>
+      <c r="E147" s="116"/>
+      <c r="F147" s="116"/>
+      <c r="G147" s="116"/>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="115" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B148" s="116"/>
+      <c r="C148" s="123"/>
+      <c r="D148" s="118">
+        <f>SUM(D143:D147)</f>
+        <v>6.0464166666666657</v>
+      </c>
+      <c r="E148" s="116"/>
+      <c r="F148" s="116"/>
+      <c r="G148" s="116"/>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="126" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="127" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B152" s="7">
+        <v>30</v>
+      </c>
+      <c r="C152" s="128">
+        <f>COGS!J13</f>
+        <v>3.1475000000000003E-2</v>
+      </c>
+      <c r="D152" s="124">
+        <f t="shared" ref="D152:D157" si="5">C152*B152</f>
+        <v>0.94425000000000003</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="129" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B153" s="7">
+        <v>20</v>
+      </c>
+      <c r="C153" s="7">
+        <f>COGS!J42</f>
+        <v>0.04</v>
+      </c>
+      <c r="D153" s="120">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="131" t="s">
+        <v>858</v>
+      </c>
+      <c r="B154" s="7">
+        <v>20</v>
+      </c>
+      <c r="C154" s="7">
+        <f>COGS!J4</f>
+        <v>2.479E-2</v>
+      </c>
+      <c r="D154" s="124">
+        <f t="shared" si="5"/>
+        <v>0.49580000000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="131" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B155" s="7">
+        <v>10</v>
+      </c>
+      <c r="C155" s="7">
+        <f>COGS!J19</f>
+        <v>1.959E-2</v>
+      </c>
+      <c r="D155" s="124">
+        <f t="shared" si="5"/>
+        <v>0.19589999999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="129" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B156" s="7">
+        <v>20</v>
+      </c>
+      <c r="C156" s="7">
+        <f>COGS!F92</f>
+        <v>1.3916666666666666E-2</v>
+      </c>
+      <c r="D156" s="137">
+        <f t="shared" si="5"/>
+        <v>0.27833333333333332</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="129" t="s">
+        <v>870</v>
+      </c>
+      <c r="B157" s="7">
+        <v>20</v>
+      </c>
+      <c r="C157" s="7">
+        <f>COGS!J16</f>
+        <v>1.959E-2</v>
+      </c>
+      <c r="D157" s="137">
+        <f t="shared" si="5"/>
+        <v>0.39179999999999998</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="129" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B158" s="7">
+        <v>3</v>
+      </c>
+      <c r="C158" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="D158" s="120">
+        <f>B158*C158</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="131"/>
+      <c r="B159" s="7">
+        <f>SUM(B152:B158)</f>
+        <v>123</v>
+      </c>
+      <c r="D159" s="124">
+        <f>SUM(D152:D158)</f>
+        <v>3.2260833333333334</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="126" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D160" s="124"/>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="131" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C161" s="7">
+        <f>COGS!J59</f>
+        <v>0</v>
+      </c>
+      <c r="D161" s="120">
+        <f>C161*B161</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="131" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D162" s="120"/>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="131" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D163" s="120">
+        <f>COGS!F141</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="131" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C164" s="18"/>
+      <c r="D164" s="124">
+        <f>COGS!F105</f>
+        <v>3.2916666666666664E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="131" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C165" s="18"/>
+      <c r="D165" s="120">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="126" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D166" s="124">
+        <f>SUM(D152:D165)</f>
+        <v>8.685083333333333</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="126" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="127" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B170" s="7">
+        <v>40</v>
+      </c>
+      <c r="C170" s="128">
+        <f>COGS!J13</f>
+        <v>3.1475000000000003E-2</v>
+      </c>
+      <c r="D170" s="124">
+        <f t="shared" ref="D170:D175" si="6">C170*B170</f>
+        <v>1.2590000000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="129" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B171" s="7">
+        <v>25</v>
+      </c>
+      <c r="C171" s="144">
+        <f>COGS!F81</f>
+        <v>1.5583333333333333E-2</v>
+      </c>
+      <c r="D171" s="120">
+        <f t="shared" si="6"/>
+        <v>0.38958333333333334</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="131" t="s">
+        <v>858</v>
+      </c>
+      <c r="B172" s="7">
+        <v>30</v>
+      </c>
+      <c r="C172" s="7">
+        <f>COGS!J4</f>
+        <v>2.479E-2</v>
+      </c>
+      <c r="D172" s="124">
+        <f t="shared" si="6"/>
+        <v>0.74370000000000003</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="131" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B173" s="7">
+        <v>20</v>
+      </c>
+      <c r="C173" s="7">
+        <f>A186+COGS!J19</f>
+        <v>1.959E-2</v>
+      </c>
+      <c r="D173" s="124">
+        <f t="shared" si="6"/>
+        <v>0.39179999999999998</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="129" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B174" s="7">
+        <v>25</v>
+      </c>
+      <c r="C174" s="144">
+        <f>COGS!F92</f>
+        <v>1.3916666666666666E-2</v>
+      </c>
+      <c r="D174" s="137">
+        <f t="shared" si="6"/>
+        <v>0.34791666666666665</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="129" t="s">
+        <v>870</v>
+      </c>
+      <c r="B175" s="7">
+        <v>30</v>
+      </c>
+      <c r="C175" s="7">
+        <f>COGS!J16</f>
+        <v>1.959E-2</v>
+      </c>
+      <c r="D175" s="137">
+        <f t="shared" si="6"/>
+        <v>0.5877</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="129" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B176" s="7">
+        <v>7</v>
+      </c>
+      <c r="C176" s="7">
+        <f>0.4</f>
+        <v>0.4</v>
+      </c>
+      <c r="D176" s="120">
+        <f>B176*C176</f>
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="131"/>
+      <c r="B177" s="7">
+        <f>SUM(B170:B176)</f>
+        <v>177</v>
+      </c>
+      <c r="D177" s="124">
+        <f>SUM(D170:D176)</f>
+        <v>6.5197000000000003</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="126" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D178" s="124"/>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="131" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C179" s="7">
+        <f>COGS!J78</f>
+        <v>0</v>
+      </c>
+      <c r="D179" s="120">
+        <f>C179*B179</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="131" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D180" s="120"/>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="126"/>
+      <c r="D181" s="124"/>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="131" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D182" s="120">
+        <f>COGS!F142</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="131" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C183" s="18"/>
+      <c r="D183" s="124">
+        <f>COGS!F124</f>
+        <v>1.8000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="131" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C184" s="18"/>
+      <c r="D184" s="120">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="126" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D185" s="120">
+        <f>SUM(D170:D184)</f>
+        <v>14.924066666666667</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D187" s="125" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="126" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D188" s="124"/>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="127" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B189" s="7">
+        <v>2</v>
+      </c>
+      <c r="C189" s="128">
+        <f>'[1]Oils 20152016'!F220</f>
+        <v>0</v>
+      </c>
+      <c r="D189" s="124">
+        <f>C189*B189</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="129" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B190" s="7">
+        <v>2</v>
+      </c>
+      <c r="C190" s="7">
+        <f>COGS!J10</f>
+        <v>1.959E-2</v>
+      </c>
+      <c r="D190" s="130">
+        <f t="shared" ref="D190:D199" si="7">C190*B190</f>
+        <v>3.918E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="131" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B191" s="7">
+        <v>3</v>
+      </c>
+      <c r="C191" s="7">
+        <f>COGS!F127</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D191" s="124">
+        <f t="shared" si="7"/>
+        <v>0.10500000000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="131" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B192" s="7">
+        <v>2</v>
+      </c>
+      <c r="C192" s="7">
+        <f>COGS!F97</f>
+        <v>2.1666666666666667E-2</v>
+      </c>
+      <c r="D192" s="124">
+        <f t="shared" si="7"/>
+        <v>4.3333333333333335E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="129" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B193" s="7">
+        <v>4</v>
+      </c>
+      <c r="C193" s="7">
+        <f>COGS!J27</f>
+        <v>2.2190000000000001E-2</v>
+      </c>
+      <c r="D193" s="130">
+        <f t="shared" si="7"/>
+        <v>8.8760000000000006E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="129" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B194" s="7">
+        <v>2</v>
+      </c>
+      <c r="C194" s="7">
+        <f>COGS!F85</f>
+        <v>2.1416666666666667E-2</v>
+      </c>
+      <c r="D194" s="130">
+        <f t="shared" si="7"/>
+        <v>4.2833333333333334E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="131"/>
+      <c r="B195" s="7">
+        <f>SUM(B189:B194)</f>
+        <v>15</v>
+      </c>
+      <c r="D195" s="124">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="126" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D196" s="124">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="131" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B197" s="7">
+        <v>190</v>
+      </c>
+      <c r="C197" s="7">
+        <f>COGS!J25</f>
+        <v>3.5899999999999999E-3</v>
+      </c>
+      <c r="D197" s="130">
+        <f t="shared" si="7"/>
+        <v>0.68209999999999993</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="134"/>
+      <c r="D198" s="130">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="134"/>
+      <c r="D199" s="130">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="131"/>
+      <c r="D200" s="130"/>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="126" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D201" s="124"/>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="131" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D202" s="124">
+        <f>E202/F202</f>
+        <v>0.63996000000000008</v>
+      </c>
+      <c r="E202" s="7">
+        <v>319.98</v>
+      </c>
+      <c r="F202" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="131" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C203" s="18"/>
+      <c r="D203" s="124">
+        <f>COGS!F71</f>
+        <v>0.19041666666666668</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="131" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C204" s="18"/>
+      <c r="D204" s="120">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="126" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D205" s="124">
+        <f>SUM(D189:D204)</f>
+        <v>1.9315833333333334</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D207" s="125" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="126" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D208" s="124"/>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="127" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B209" s="7">
+        <f>COGS!J16</f>
+        <v>1.959E-2</v>
+      </c>
+      <c r="C209" s="128">
+        <f>'[1]Oils 20152016'!F240</f>
+        <v>0</v>
+      </c>
+      <c r="D209" s="124">
+        <f t="shared" ref="D209:D214" si="8">C209*B209</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="131"/>
+      <c r="D210" s="124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="126" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D211" s="124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="131" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B212" s="7">
+        <v>190</v>
+      </c>
+      <c r="C212" s="7">
+        <f>COGS!J45</f>
+        <v>0</v>
+      </c>
+      <c r="D212" s="130">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="134"/>
+      <c r="D213" s="130">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="134"/>
+      <c r="D214" s="130">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="131"/>
+      <c r="D215" s="130"/>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="126" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D216" s="124"/>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="131" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D217" s="120">
+        <f>E217/F217</f>
+        <v>0.63996000000000008</v>
+      </c>
+      <c r="E217" s="7">
+        <v>319.98</v>
+      </c>
+      <c r="F217" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="131" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C218" s="18"/>
+      <c r="D218" s="124">
+        <f>COGS!F91</f>
+        <v>3.4083333333333334E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="131" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C219" s="18"/>
+      <c r="D219" s="120">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="126" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D220" s="124">
+        <f>SUM(D209:D219)</f>
+        <v>0.77404333333333342</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="7" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="7" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="7" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="7" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="7" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="7" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="7" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E26C642-E14C-BE4E-9485-723274DE545F}">
+  <sheetPr published="0"/>
+  <dimension ref="A1:L60"/>
+  <sheetViews>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="99"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="30" customFormat="1">
+      <c r="A1" s="30" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D1" s="145" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>857</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>1113</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>1114</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="G2" s="99"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D3" s="99">
+        <f>'Product Cost Basis'!D18</f>
+        <v>4.6100544117647058</v>
+      </c>
+      <c r="E3" s="146">
+        <v>25</v>
+      </c>
+      <c r="F3" s="146"/>
+      <c r="G3" s="99">
+        <f>E3-D3</f>
+        <v>20.389945588235292</v>
+      </c>
+      <c r="H3" s="147">
+        <v>50</v>
+      </c>
+      <c r="J3" s="146">
+        <f>G3*H3</f>
+        <v>1019.4972794117646</v>
+      </c>
+      <c r="L3" s="146">
+        <f>J3*52</f>
+        <v>53013.858529411758</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="99">
+        <f t="shared" ref="G4:G28" si="0">E4-D4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="147"/>
+      <c r="J4" s="146"/>
+      <c r="L4" s="146"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B5" s="104" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D5" s="99">
+        <v>4</v>
+      </c>
+      <c r="E5" s="146">
+        <v>25</v>
+      </c>
+      <c r="F5" s="146"/>
+      <c r="G5" s="99">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H5" s="147">
+        <v>50</v>
+      </c>
+      <c r="J5" s="146">
+        <f>G5*H5</f>
+        <v>1050</v>
+      </c>
+      <c r="L5" s="146">
+        <f>J5*52</f>
+        <v>54600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D6" s="99">
+        <v>4</v>
+      </c>
+      <c r="E6" s="146">
+        <v>25</v>
+      </c>
+      <c r="F6" s="146"/>
+      <c r="G6" s="99">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H6" s="147">
+        <v>50</v>
+      </c>
+      <c r="J6" s="146">
+        <f>G6*H6</f>
+        <v>1050</v>
+      </c>
+      <c r="L6" s="146">
+        <f>J6*52</f>
+        <v>54600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D7" s="99">
+        <f>'Product Cost Basis'!D70</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="99">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="147"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B8" s="102" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D8" s="99">
+        <f>'Product Cost Basis'!D98</f>
+        <v>7.9477166666666657</v>
+      </c>
+      <c r="E8" s="146">
+        <v>35</v>
+      </c>
+      <c r="G8" s="99">
+        <f t="shared" si="0"/>
+        <v>27.052283333333335</v>
+      </c>
+      <c r="I8" s="147"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B9" s="89" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C9" s="89" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D9" s="148"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="148">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="147"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C10" s="89" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D10" s="148"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="148">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="147"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E11" s="146"/>
+      <c r="G11" s="99">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="147"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B12" s="102" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D12" s="99">
+        <f>'Product Cost Basis'!D87</f>
+        <v>1.6899966666666666</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="G12" s="99">
+        <f t="shared" si="0"/>
+        <v>18.310003333333334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G13" s="99">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G14" s="99">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B15" s="102" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D15" s="99">
+        <f>'Product Cost Basis'!D114</f>
+        <v>7.8411999999999997</v>
+      </c>
+      <c r="E15">
+        <v>25</v>
+      </c>
+      <c r="G15" s="99">
+        <f t="shared" si="0"/>
+        <v>17.158799999999999</v>
+      </c>
+      <c r="I15" s="147"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="35" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D16" s="99">
+        <f>'Product Cost Basis'!D148</f>
+        <v>6.0464166666666657</v>
+      </c>
+      <c r="E16">
+        <v>25</v>
+      </c>
+      <c r="G16" s="99">
+        <f t="shared" si="0"/>
+        <v>18.953583333333334</v>
+      </c>
+      <c r="I16" s="147"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="B17" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G17" s="99">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="147"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G18" s="99">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="147"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="B19" s="89" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C19" s="89"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="148">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="147"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="B20" s="102" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C20" t="s">
+        <v>919</v>
+      </c>
+      <c r="D20" s="99">
+        <f>'Product Cost Basis'!D148</f>
+        <v>6.0464166666666657</v>
+      </c>
+      <c r="E20">
+        <v>25</v>
+      </c>
+      <c r="G20" s="99">
+        <f t="shared" si="0"/>
+        <v>18.953583333333334</v>
+      </c>
+      <c r="I20" s="147"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B21" s="150" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D21" s="99">
+        <f>'Product Cost Basis'!D131</f>
+        <v>2.3970766666666665</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="G21" s="99">
+        <f t="shared" si="0"/>
+        <v>17.602923333333333</v>
+      </c>
+      <c r="I21" s="147"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="B22" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G22" s="99">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="147"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G23" s="99">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="147"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="B24" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G24" s="99">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="147"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G25" s="99">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="147"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G26" s="99">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="147"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" t="s">
+        <v>1156</v>
+      </c>
+      <c r="G27" s="99">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="147"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G28" s="99">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="147"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="B29" s="150" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D29" s="99">
+        <f>'Product Cost Basis'!D56</f>
+        <v>10.277969999999998</v>
+      </c>
+      <c r="E29" s="146">
+        <v>35</v>
+      </c>
+      <c r="G29" s="99">
+        <f>E29-D29</f>
+        <v>24.722030000000004</v>
+      </c>
+      <c r="I29" s="147"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G30" s="99">
+        <f t="shared" ref="G30:G43" si="1">E30-D30</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="147"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G31" s="99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="147"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" s="89" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C32" s="89"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="148">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="147"/>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="89" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C33" s="89"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="148">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="147"/>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G34" s="99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="147"/>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G35" s="99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="147"/>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G36" s="99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="147"/>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G37" s="99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="147"/>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G38" s="99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="147"/>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="B39" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G39" s="99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="147"/>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="B40" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G40" s="99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="147"/>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G41" s="99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="147"/>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="B42" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D42" s="99">
+        <f>'Product Cost Basis'!D166</f>
+        <v>8.685083333333333</v>
+      </c>
+      <c r="E42">
+        <v>25</v>
+      </c>
+      <c r="G42" s="99">
+        <f t="shared" si="1"/>
+        <v>16.314916666666669</v>
+      </c>
+      <c r="I42" s="147"/>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="B43" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D43" s="99">
+        <f>'Product Cost Basis'!D185</f>
+        <v>14.924066666666667</v>
+      </c>
+      <c r="E43">
+        <v>40</v>
+      </c>
+      <c r="G43" s="99">
+        <f t="shared" si="1"/>
+        <v>25.075933333333332</v>
+      </c>
+      <c r="I43" s="147"/>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="B44" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D44" s="99">
+        <v>15</v>
+      </c>
+      <c r="E44" s="151">
+        <v>30</v>
+      </c>
+      <c r="F44" s="146"/>
+      <c r="G44" s="99">
+        <v>15</v>
+      </c>
+      <c r="H44" s="146"/>
+      <c r="I44" s="147">
+        <v>1000</v>
+      </c>
+      <c r="K44" s="146">
+        <f>I44*G44</f>
+        <v>15000</v>
+      </c>
+      <c r="L44" s="146">
+        <f>K44*12</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="B45" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D45" s="99">
+        <f>'Product Cost Basis'!D205</f>
+        <v>1.9315833333333334</v>
+      </c>
+      <c r="E45" s="151">
+        <v>25</v>
+      </c>
+      <c r="F45" s="146"/>
+      <c r="G45" s="99">
+        <v>15</v>
+      </c>
+      <c r="H45" s="146"/>
+      <c r="I45" s="147"/>
+      <c r="K45" s="146"/>
+      <c r="L45" s="146"/>
+    </row>
+    <row r="46" spans="2:12">
+      <c r="B46" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D46" s="99">
+        <f>'Product Cost Basis'!D220</f>
+        <v>0.77404333333333342</v>
+      </c>
+      <c r="E46" s="151">
+        <v>10</v>
+      </c>
+      <c r="F46" s="146"/>
+      <c r="G46" s="99">
+        <v>15</v>
+      </c>
+      <c r="H46" s="146"/>
+      <c r="I46" s="147"/>
+      <c r="K46" s="146"/>
+      <c r="L46" s="146"/>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="G47" s="99"/>
+      <c r="I47" s="147"/>
+      <c r="L47" s="146">
+        <f>SUM(L3:L44)</f>
+        <v>342213.85852941172</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="B48" s="30" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C48" s="30"/>
+      <c r="I48" s="147"/>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I49" s="147"/>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" t="s">
+        <v>1180</v>
+      </c>
+      <c r="I50" s="147"/>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="I51" s="147"/>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="I52" s="147"/>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="I53" s="147"/>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="30" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C54" s="30"/>
+      <c r="D54" s="152" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E54" s="153" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D56" s="99">
+        <v>40</v>
+      </c>
+      <c r="E56">
+        <f>D56*12</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D57" s="99">
+        <f>E57/12</f>
+        <v>24</v>
+      </c>
+      <c r="E57">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D58" s="99">
+        <f>E58/12</f>
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EE1346-4BA3-104F-9988-B160271D1BB1}">
+  <sheetPr published="0"/>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="30" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>870</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>872</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>874</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="G36">
+        <f>SUM(G2:G33)</f>
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46695967-4D3D-A049-92CD-919C77ED5DDD}">
+  <sheetPr published="0"/>
+  <dimension ref="A1:G122"/>
+  <sheetViews>
+    <sheetView view="pageLayout" topLeftCell="A14" zoomScale="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="D1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B2" s="57">
+        <v>14.19</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="57">
+        <f t="shared" ref="D2:D9" si="0">B2/C2</f>
+        <v>3.5474999999999999</v>
+      </c>
+      <c r="E2" t="s">
+        <v>801</v>
+      </c>
+      <c r="F2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>803</v>
+      </c>
+      <c r="B3" s="57">
+        <v>27.44</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3" s="57">
+        <f t="shared" si="0"/>
+        <v>1.7150000000000001</v>
+      </c>
+      <c r="E3" t="s">
+        <v>801</v>
+      </c>
+      <c r="F3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>804</v>
+      </c>
+      <c r="B4" s="57">
+        <v>14.99</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4" s="57">
+        <f t="shared" si="0"/>
+        <v>0.93687500000000001</v>
+      </c>
+      <c r="E4" t="s">
+        <v>801</v>
+      </c>
+      <c r="F4" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>805</v>
+      </c>
+      <c r="B5" s="57">
+        <v>24.29</v>
+      </c>
+      <c r="C5">
+        <v>101</v>
+      </c>
+      <c r="D5" s="57">
+        <f t="shared" si="0"/>
+        <v>0.24049504950495049</v>
+      </c>
+      <c r="E5" t="s">
+        <v>806</v>
+      </c>
+      <c r="F5" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>807</v>
+      </c>
+      <c r="B6" s="57">
+        <v>45.99</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="57">
+        <f t="shared" si="0"/>
+        <v>11.4975</v>
+      </c>
+      <c r="E6" t="s">
+        <v>801</v>
+      </c>
+      <c r="F6" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>808</v>
+      </c>
+      <c r="B7" s="57">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7" s="57">
+        <f t="shared" si="0"/>
+        <v>1.1556249999999999</v>
+      </c>
+      <c r="E7" t="s">
+        <v>801</v>
+      </c>
+      <c r="F7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>809</v>
+      </c>
+      <c r="B8" s="57">
+        <v>17.5</v>
+      </c>
+      <c r="C8">
+        <v>64</v>
+      </c>
+      <c r="D8" s="57">
+        <f t="shared" si="0"/>
+        <v>0.2734375</v>
+      </c>
+      <c r="E8" t="s">
+        <v>810</v>
+      </c>
+      <c r="F8" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>811</v>
+      </c>
+      <c r="B9" s="57">
+        <v>26.9</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9" s="57">
+        <f t="shared" si="0"/>
+        <v>1.6812499999999999</v>
+      </c>
+      <c r="E9" t="s">
+        <v>801</v>
+      </c>
+      <c r="F9" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="57"/>
+      <c r="D10" s="57"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="57"/>
+      <c r="D11" s="57"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="86"/>
+      <c r="B12" s="57"/>
+      <c r="D12" s="57"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>812</v>
+      </c>
+      <c r="B13" s="57">
+        <v>12.99</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+      <c r="D13" s="57">
+        <f>B13/C13</f>
+        <v>6.4950000000000008E-2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>813</v>
+      </c>
+      <c r="F13" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>815</v>
+      </c>
+      <c r="B14" s="57">
+        <v>10.99</v>
+      </c>
+      <c r="C14">
+        <v>200</v>
+      </c>
+      <c r="D14" s="57">
+        <f>B14/C14</f>
+        <v>5.4949999999999999E-2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>816</v>
+      </c>
+      <c r="F14" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>818</v>
+      </c>
+      <c r="B15" s="57">
+        <v>7.99</v>
+      </c>
+      <c r="C15">
+        <v>200</v>
+      </c>
+      <c r="D15" s="57">
+        <f>B15/C15</f>
+        <v>3.9949999999999999E-2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>819</v>
+      </c>
+      <c r="F15" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="57"/>
+      <c r="D16" s="57"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>821</v>
+      </c>
+      <c r="B17" s="57">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
+      <c r="D17" s="57">
+        <f>B17/C17</f>
+        <v>0.38</v>
+      </c>
+      <c r="F17" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="B18" s="57"/>
+      <c r="D18" s="57"/>
+    </row>
+    <row r="19" spans="1:7" ht="52">
+      <c r="A19" s="87" t="s">
+        <v>823</v>
+      </c>
+      <c r="B19" s="57">
+        <v>17.5</v>
+      </c>
+      <c r="C19">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="D19" s="57">
+        <f>B19/C19</f>
+        <v>0.35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>824</v>
+      </c>
+      <c r="B20" s="57">
+        <v>27.5</v>
+      </c>
+      <c r="C20">
+        <v>50</v>
+      </c>
+      <c r="D20" s="57">
+        <f>B20/C20</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F20" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" s="57">
+        <f>SUM(B2:B20)</f>
+        <v>285.76000000000005</v>
+      </c>
+      <c r="D21" s="57"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22" s="57"/>
+      <c r="D22" s="57"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="57"/>
+      <c r="D23" s="57"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>825</v>
+      </c>
+      <c r="B24" s="57">
+        <v>350</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24" s="57">
+        <f>B24/C24</f>
+        <v>3.5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>826</v>
+      </c>
+      <c r="G24" s="88">
+        <v>41592</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>827</v>
+      </c>
+      <c r="B25" s="57">
+        <v>11.99</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25" s="57">
+        <f>B25/C25</f>
+        <v>0.49958333333333332</v>
+      </c>
+      <c r="F25" t="s">
+        <v>828</v>
+      </c>
+      <c r="G25" s="88">
+        <v>41594</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="57"/>
+      <c r="D26" s="57"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>829</v>
+      </c>
+      <c r="B27" s="57">
+        <v>20.58</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27" s="57">
+        <f>B27/C27</f>
+        <v>0.20579999999999998</v>
+      </c>
+      <c r="F27" t="s">
+        <v>830</v>
+      </c>
+      <c r="G27" s="88">
+        <v>41595</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="57"/>
+      <c r="D28" s="57"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>831</v>
+      </c>
+      <c r="B29">
+        <v>1267.42</v>
+      </c>
+      <c r="D29" s="57"/>
+      <c r="G29" s="88">
+        <v>41599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>832</v>
+      </c>
+      <c r="B30" s="89">
+        <v>31.19</v>
+      </c>
+      <c r="D30" s="57"/>
+      <c r="F30" t="s">
+        <v>826</v>
+      </c>
+      <c r="G30" s="88">
+        <v>41599</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>833</v>
+      </c>
+      <c r="B31" s="90">
+        <v>26</v>
+      </c>
+      <c r="D31" s="57"/>
+      <c r="F31" t="s">
+        <v>834</v>
+      </c>
+      <c r="G31" s="88">
+        <v>41599</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>835</v>
+      </c>
+      <c r="B32" s="89">
+        <v>69</v>
+      </c>
+      <c r="D32" s="57"/>
+      <c r="F32" t="s">
+        <v>836</v>
+      </c>
+      <c r="G32" s="88">
+        <v>41599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="D33" s="57"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="56" t="s">
+        <v>837</v>
+      </c>
+      <c r="B34">
+        <v>64.489999999999995</v>
+      </c>
+      <c r="D34" s="57"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="D35" s="57"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="D36" s="57"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="D37" s="57"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="D38" s="57"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="D39" s="57"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="D40" s="57"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="D41" s="57"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="D42" s="57"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="D43" s="57"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="D44" s="57"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="D45" s="57"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="D46" s="57"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="D47" s="57"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="D48" s="57"/>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="57"/>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" s="57"/>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="57"/>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" s="57"/>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53" s="57"/>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" s="57"/>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="D55" s="57"/>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56" s="57"/>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="D57" s="57"/>
+    </row>
+    <row r="58" spans="4:4">
+      <c r="D58" s="57"/>
+    </row>
+    <row r="59" spans="4:4">
+      <c r="D59" s="57"/>
+    </row>
+    <row r="60" spans="4:4">
+      <c r="D60" s="57"/>
+    </row>
+    <row r="61" spans="4:4">
+      <c r="D61" s="57"/>
+    </row>
+    <row r="62" spans="4:4">
+      <c r="D62" s="57"/>
+    </row>
+    <row r="63" spans="4:4">
+      <c r="D63" s="57"/>
+    </row>
+    <row r="64" spans="4:4">
+      <c r="D64" s="57"/>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" s="57"/>
+    </row>
+    <row r="66" spans="4:4">
+      <c r="D66" s="57"/>
+    </row>
+    <row r="67" spans="4:4">
+      <c r="D67" s="57"/>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" s="57"/>
+    </row>
+    <row r="69" spans="4:4">
+      <c r="D69" s="57"/>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="D70" s="57"/>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="D71" s="57"/>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="D72" s="57"/>
+    </row>
+    <row r="73" spans="4:4">
+      <c r="D73" s="57"/>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="D74" s="57"/>
+    </row>
+    <row r="75" spans="4:4">
+      <c r="D75" s="57"/>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="D76" s="57"/>
+    </row>
+    <row r="77" spans="4:4">
+      <c r="D77" s="57"/>
+    </row>
+    <row r="78" spans="4:4">
+      <c r="D78" s="57"/>
+    </row>
+    <row r="79" spans="4:4">
+      <c r="D79" s="57"/>
+    </row>
+    <row r="80" spans="4:4">
+      <c r="D80" s="57"/>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" s="57"/>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" s="57"/>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83" s="57"/>
+    </row>
+    <row r="84" spans="4:4">
+      <c r="D84" s="57"/>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="D85" s="57"/>
+    </row>
+    <row r="86" spans="4:4">
+      <c r="D86" s="57"/>
+    </row>
+    <row r="87" spans="4:4">
+      <c r="D87" s="57"/>
+    </row>
+    <row r="88" spans="4:4">
+      <c r="D88" s="57"/>
+    </row>
+    <row r="89" spans="4:4">
+      <c r="D89" s="57"/>
+    </row>
+    <row r="90" spans="4:4">
+      <c r="D90" s="57"/>
+    </row>
+    <row r="91" spans="4:4">
+      <c r="D91" s="57"/>
+    </row>
+    <row r="92" spans="4:4">
+      <c r="D92" s="57"/>
+    </row>
+    <row r="93" spans="4:4">
+      <c r="D93" s="57"/>
+    </row>
+    <row r="94" spans="4:4">
+      <c r="D94" s="57"/>
+    </row>
+    <row r="95" spans="4:4">
+      <c r="D95" s="57"/>
+    </row>
+    <row r="96" spans="4:4">
+      <c r="D96" s="57"/>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" s="57"/>
+    </row>
+    <row r="98" spans="4:4">
+      <c r="D98" s="57"/>
+    </row>
+    <row r="99" spans="4:4">
+      <c r="D99" s="57"/>
+    </row>
+    <row r="100" spans="4:4">
+      <c r="D100" s="57"/>
+    </row>
+    <row r="101" spans="4:4">
+      <c r="D101" s="57"/>
+    </row>
+    <row r="102" spans="4:4">
+      <c r="D102" s="57"/>
+    </row>
+    <row r="103" spans="4:4">
+      <c r="D103" s="57"/>
+    </row>
+    <row r="104" spans="4:4">
+      <c r="D104" s="57"/>
+    </row>
+    <row r="105" spans="4:4">
+      <c r="D105" s="57"/>
+    </row>
+    <row r="106" spans="4:4">
+      <c r="D106" s="57"/>
+    </row>
+    <row r="107" spans="4:4">
+      <c r="D107" s="57"/>
+    </row>
+    <row r="108" spans="4:4">
+      <c r="D108" s="57"/>
+    </row>
+    <row r="109" spans="4:4">
+      <c r="D109" s="57"/>
+    </row>
+    <row r="110" spans="4:4">
+      <c r="D110" s="57"/>
+    </row>
+    <row r="111" spans="4:4">
+      <c r="D111" s="57"/>
+    </row>
+    <row r="112" spans="4:4">
+      <c r="D112" s="57"/>
+    </row>
+    <row r="113" spans="4:4">
+      <c r="D113" s="57"/>
+    </row>
+    <row r="114" spans="4:4">
+      <c r="D114" s="57"/>
+    </row>
+    <row r="115" spans="4:4">
+      <c r="D115" s="57"/>
+    </row>
+    <row r="116" spans="4:4">
+      <c r="D116" s="57"/>
+    </row>
+    <row r="117" spans="4:4">
+      <c r="D117" s="57"/>
+    </row>
+    <row r="118" spans="4:4">
+      <c r="D118" s="57"/>
+    </row>
+    <row r="119" spans="4:4">
+      <c r="D119" s="57"/>
+    </row>
+    <row r="120" spans="4:4">
+      <c r="D120" s="57"/>
+    </row>
+    <row r="121" spans="4:4">
+      <c r="D121" s="57"/>
+    </row>
+    <row r="122" spans="4:4">
+      <c r="D122" s="57"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA237A3-F745-CB41-9C5A-6BEDC482C530}">
   <dimension ref="A2:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -4181,13 +13592,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85C7317-AF6A-764D-80B2-0326A8954AEA}">
   <sheetPr published="0"/>
   <dimension ref="A1:BI234"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L128" sqref="L128"/>
       <selection pane="bottomLeft" activeCell="L128" sqref="L128"/>
     </sheetView>
@@ -17725,12 +27136,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF45825D-A6F5-3D4E-B400-B6D457616D35}">
   <sheetPr published="0"/>
   <dimension ref="A1:I183"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="L128" sqref="L128"/>
     </sheetView>
   </sheetViews>
@@ -19725,12 +29136,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BAFC00-203F-E845-8C9A-C083A7901380}">
   <sheetPr published="0"/>
   <dimension ref="A1:F218"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L128" sqref="L128"/>
     </sheetView>
   </sheetViews>
